--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -3,25 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F97BD2-C92F-7548-A1EE-6A0E963B7A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08C028F-982D-4042-BE89-FE5BE3668122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21460" yWindow="500" windowWidth="29620" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="500" windowWidth="42580" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$G$31:$N$31</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$52:$N$52</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$31:$N$31</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$G$52:$N$52</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$31:$N$31</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$52:$N$52</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$31:$N$31</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$52:$N$52</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$31:$N$31</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$G$52:$N$52</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
   <si>
     <t>V1</t>
   </si>
@@ -148,10 +136,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50 次迭代</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Instance</t>
   </si>
   <si>
@@ -178,12 +162,20 @@
   <si>
     <t>BEOV4</t>
   </si>
+  <si>
+    <t>V4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 次迭代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +242,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,8 +272,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -335,19 +350,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
@@ -501,47 +503,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,46 +528,73 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -598,21 +603,83 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -719,6 +786,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4A0C-494E-B5B4-25FC59F05195}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -733,6 +805,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4A0C-494E-B5B4-25FC59F05195}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -766,6 +843,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4A0C-494E-B5B4-25FC59F05195}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -780,6 +862,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4A0C-494E-B5B4-25FC59F05195}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -794,6 +881,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-4A0C-494E-B5B4-25FC59F05195}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -810,6 +902,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-4A0C-494E-B5B4-25FC59F05195}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -826,6 +923,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-4A0C-494E-B5B4-25FC59F05195}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -887,65 +989,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$31:$N$31</c:f>
+              <c:f>Sheet1!$G$32:$N$32</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>S1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>V1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>V2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>V3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>V4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>S2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>S4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$52:$N$52</c:f>
+              <c:f>Sheet1!$G$53:$N$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>22452</c:v>
+                  <c:v>31162</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22375</c:v>
+                  <c:v>30326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22453</c:v>
+                  <c:v>32250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22347</c:v>
+                  <c:v>32911</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20933</c:v>
+                  <c:v>36464</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20478</c:v>
+                  <c:v>35841</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21481</c:v>
+                  <c:v>36471</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21799</c:v>
+                  <c:v>35490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,6 +1127,8 @@
         <c:axId val="1581063199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40000"/>
+          <c:min val="20000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1678,13 +1782,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>163689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>98778</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1976,2951 +2080,2980 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:N105"/>
+  <dimension ref="C2:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="111" workbookViewId="0">
-      <selection activeCell="R75" sqref="R75"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="215" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="3"/>
     <col min="4" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="7.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="15" thickBot="1"/>
-    <row r="4" spans="2:14" ht="16" thickTop="1" thickBot="1">
-      <c r="G4" s="32" t="s">
+    <row r="2" spans="3:14" ht="15" thickBot="1"/>
+    <row r="3" spans="3:14" ht="16" thickTop="1" thickBot="1">
+      <c r="G3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="34"/>
-    </row>
-    <row r="5" spans="2:14" ht="16" thickTop="1" thickBot="1">
-      <c r="C5" s="16" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+    </row>
+    <row r="4" spans="3:14" ht="16" thickTop="1" thickBot="1">
+      <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="L4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="M4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="N4" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" ht="15" thickTop="1">
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>269</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10</v>
+      </c>
+      <c r="F5" s="22">
+        <v>295</v>
+      </c>
+      <c r="G5" s="6">
+        <v>295</v>
+      </c>
+      <c r="H5" s="6">
+        <v>295</v>
+      </c>
+      <c r="I5" s="6">
+        <v>295</v>
+      </c>
+      <c r="J5" s="6">
+        <v>295</v>
+      </c>
+      <c r="K5" s="6">
+        <v>295</v>
+      </c>
+      <c r="L5" s="6">
+        <v>295</v>
+      </c>
+      <c r="M5" s="6">
+        <v>295</v>
+      </c>
+      <c r="N5" s="12">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14">
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>878</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20</v>
+      </c>
+      <c r="F6" s="23">
+        <v>976</v>
+      </c>
+      <c r="G6" s="6">
+        <v>976</v>
+      </c>
+      <c r="H6" s="6">
+        <v>976</v>
+      </c>
+      <c r="I6" s="6">
+        <v>976</v>
+      </c>
+      <c r="J6" s="6">
+        <v>976</v>
+      </c>
+      <c r="K6" s="6">
+        <v>976</v>
+      </c>
+      <c r="L6" s="6">
+        <v>976</v>
+      </c>
+      <c r="M6" s="6">
+        <v>976</v>
+      </c>
+      <c r="N6" s="12">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14">
+      <c r="C7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="18">
+        <v>20</v>
+      </c>
+      <c r="E7" s="18">
+        <v>4</v>
+      </c>
+      <c r="F7" s="24">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6">
+        <v>35</v>
+      </c>
+      <c r="H7" s="6">
+        <v>35</v>
+      </c>
+      <c r="I7" s="6">
+        <v>35</v>
+      </c>
+      <c r="J7" s="6">
+        <v>35</v>
+      </c>
+      <c r="K7" s="6">
+        <v>35</v>
+      </c>
+      <c r="L7" s="6">
+        <v>35</v>
+      </c>
+      <c r="M7" s="6">
+        <v>35</v>
+      </c>
+      <c r="N7" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14">
+      <c r="C8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="18">
+        <v>11</v>
+      </c>
+      <c r="E8" s="18">
+        <v>4</v>
+      </c>
+      <c r="F8" s="24">
+        <v>23</v>
+      </c>
+      <c r="G8" s="6">
+        <v>23</v>
+      </c>
+      <c r="H8" s="6">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6">
+        <v>23</v>
+      </c>
+      <c r="J8" s="6">
+        <v>23</v>
+      </c>
+      <c r="K8" s="6">
+        <v>23</v>
+      </c>
+      <c r="L8" s="6">
+        <v>23</v>
+      </c>
+      <c r="M8" s="6">
+        <v>23</v>
+      </c>
+      <c r="N8" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14">
+      <c r="C9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="18">
+        <v>375</v>
+      </c>
+      <c r="E9" s="18">
+        <v>15</v>
+      </c>
+      <c r="F9" s="24">
+        <v>481.07</v>
+      </c>
+      <c r="G9" s="6">
+        <v>481</v>
+      </c>
+      <c r="H9" s="6">
+        <v>481</v>
+      </c>
+      <c r="I9" s="6">
+        <v>481</v>
+      </c>
+      <c r="J9" s="6">
+        <v>481</v>
+      </c>
+      <c r="K9" s="6">
+        <v>481</v>
+      </c>
+      <c r="L9" s="6">
+        <v>481</v>
+      </c>
+      <c r="M9" s="6">
+        <v>481</v>
+      </c>
+      <c r="N9" s="12">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14">
+      <c r="C10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="18">
+        <v>60</v>
+      </c>
+      <c r="E10" s="18">
+        <v>10</v>
+      </c>
+      <c r="F10" s="24">
+        <v>52</v>
+      </c>
+      <c r="G10" s="6">
+        <v>52</v>
+      </c>
+      <c r="H10" s="6">
+        <v>52</v>
+      </c>
+      <c r="I10" s="6">
+        <v>52</v>
+      </c>
+      <c r="J10" s="6">
+        <v>52</v>
+      </c>
+      <c r="K10" s="6">
+        <v>52</v>
+      </c>
+      <c r="L10" s="6">
+        <v>52</v>
+      </c>
+      <c r="M10" s="6">
+        <v>52</v>
+      </c>
+      <c r="N10" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14">
+      <c r="C11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="18">
+        <v>50</v>
+      </c>
+      <c r="E11" s="18">
+        <v>7</v>
+      </c>
+      <c r="F11" s="24">
+        <v>107</v>
+      </c>
+      <c r="G11" s="6">
+        <v>107</v>
+      </c>
+      <c r="H11" s="6">
+        <v>107</v>
+      </c>
+      <c r="I11" s="6">
+        <v>107</v>
+      </c>
+      <c r="J11" s="6">
+        <v>107</v>
+      </c>
+      <c r="K11" s="6">
+        <v>107</v>
+      </c>
+      <c r="L11" s="6">
+        <v>107</v>
+      </c>
+      <c r="M11" s="6">
+        <v>107</v>
+      </c>
+      <c r="N11" s="12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14">
+      <c r="C12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="18">
+        <v>23</v>
+      </c>
+      <c r="F12" s="24">
+        <v>9767</v>
+      </c>
+      <c r="G12" s="6">
+        <v>9767</v>
+      </c>
+      <c r="H12" s="6">
+        <v>9767</v>
+      </c>
+      <c r="I12" s="6">
+        <v>9767</v>
+      </c>
+      <c r="J12" s="6">
+        <v>9767</v>
+      </c>
+      <c r="K12" s="6">
+        <v>9767</v>
+      </c>
+      <c r="L12" s="6">
+        <v>9767</v>
+      </c>
+      <c r="M12" s="6">
+        <v>9767</v>
+      </c>
+      <c r="N12" s="12">
+        <v>9767</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14">
+      <c r="C13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="18">
+        <v>80</v>
+      </c>
+      <c r="E13" s="18">
+        <v>5</v>
+      </c>
+      <c r="F13" s="24">
+        <v>130</v>
+      </c>
+      <c r="G13" s="6">
+        <v>130</v>
+      </c>
+      <c r="H13" s="6">
+        <v>130</v>
+      </c>
+      <c r="I13" s="6">
+        <v>130</v>
+      </c>
+      <c r="J13" s="6">
+        <v>130</v>
+      </c>
+      <c r="K13" s="6">
+        <v>130</v>
+      </c>
+      <c r="L13" s="6">
+        <v>130</v>
+      </c>
+      <c r="M13" s="6">
+        <v>130</v>
+      </c>
+      <c r="N13" s="12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14">
+      <c r="C14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="18">
+        <v>879</v>
+      </c>
+      <c r="E14" s="18">
+        <v>20</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1025</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1025</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1025</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1025</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1025</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1025</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1025</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1025</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14">
+      <c r="C15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="18">
+        <v>577</v>
+      </c>
+      <c r="E15" s="18">
+        <v>30</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1437</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1378</v>
+      </c>
+      <c r="H15" s="18">
+        <v>1402</v>
+      </c>
+      <c r="I15" s="18">
+        <v>1422</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1437</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1437</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1437</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1437</v>
+      </c>
+      <c r="N15" s="12">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14">
+      <c r="C16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="18">
+        <v>655</v>
+      </c>
+      <c r="E16" s="18">
+        <v>35</v>
+      </c>
+      <c r="F16" s="24">
+        <v>1689</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1666</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1671</v>
+      </c>
+      <c r="I16" s="26">
+        <v>1676</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1675</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1689</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1689</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1689</v>
+      </c>
+      <c r="N16" s="12">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="18">
+        <v>819</v>
+      </c>
+      <c r="E17" s="18">
+        <v>40</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1821</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1686</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1645</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1774</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1751</v>
+      </c>
+      <c r="K17" s="18">
+        <v>1806</v>
+      </c>
+      <c r="L17" s="18">
+        <v>1816</v>
+      </c>
+      <c r="M17" s="18">
+        <v>1810</v>
+      </c>
+      <c r="N17" s="20">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="18">
+        <v>907</v>
+      </c>
+      <c r="E18" s="18">
+        <v>45</v>
+      </c>
+      <c r="F18" s="24">
+        <v>2033</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1764</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1772</v>
+      </c>
+      <c r="I18" s="18">
+        <v>1911</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1895</v>
+      </c>
+      <c r="K18" s="18">
+        <v>2002</v>
+      </c>
+      <c r="L18" s="18">
+        <v>1979</v>
+      </c>
+      <c r="M18" s="6">
+        <v>2033</v>
+      </c>
+      <c r="N18" s="20">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="18">
+        <v>882</v>
+      </c>
+      <c r="E19" s="18">
+        <v>50</v>
+      </c>
+      <c r="F19" s="24">
+        <v>2444</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2444</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2444</v>
+      </c>
+      <c r="I19" s="26">
+        <v>2438</v>
+      </c>
+      <c r="J19" s="26">
+        <v>2440</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2444</v>
+      </c>
+      <c r="L19" s="6">
+        <v>2444</v>
+      </c>
+      <c r="M19" s="6">
+        <v>2444</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1050</v>
+      </c>
+      <c r="E20" s="18">
+        <v>55</v>
+      </c>
+      <c r="F20" s="24">
+        <v>2651</v>
+      </c>
+      <c r="G20" s="18">
+        <v>2346</v>
+      </c>
+      <c r="H20" s="18">
+        <v>2316</v>
+      </c>
+      <c r="I20" s="18">
+        <v>2397</v>
+      </c>
+      <c r="J20" s="18">
+        <v>2490</v>
+      </c>
+      <c r="K20" s="18">
+        <v>2647</v>
+      </c>
+      <c r="L20" s="18">
+        <v>2556</v>
+      </c>
+      <c r="M20" s="18">
+        <v>2607</v>
+      </c>
+      <c r="N20" s="20">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1006</v>
+      </c>
+      <c r="E21" s="18">
+        <v>60</v>
+      </c>
+      <c r="F21" s="24">
+        <v>2917</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2361</v>
+      </c>
+      <c r="H21" s="18">
+        <v>2355</v>
+      </c>
+      <c r="I21" s="26">
+        <v>2493</v>
+      </c>
+      <c r="J21" s="18">
+        <v>2698</v>
+      </c>
+      <c r="K21" s="26">
+        <v>2844</v>
+      </c>
+      <c r="L21" s="26">
+        <v>2831</v>
+      </c>
+      <c r="M21" s="26">
+        <v>2830</v>
+      </c>
+      <c r="N21" s="27">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1319</v>
+      </c>
+      <c r="E22" s="5">
+        <v>65</v>
+      </c>
+      <c r="F22" s="23">
+        <v>2817</v>
+      </c>
+      <c r="G22" s="26">
+        <v>2249</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2254</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2495</v>
+      </c>
+      <c r="J22" s="5">
+        <v>2510</v>
+      </c>
+      <c r="K22" s="26">
+        <v>2724</v>
+      </c>
+      <c r="L22" s="26">
+        <v>2650</v>
+      </c>
+      <c r="M22" s="26">
+        <v>2710</v>
+      </c>
+      <c r="N22" s="27">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="C23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1426</v>
+      </c>
+      <c r="E23" s="5">
+        <v>70</v>
+      </c>
+      <c r="F23" s="23">
+        <v>3223</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2784</v>
+      </c>
+      <c r="H23" s="5">
+        <v>2531</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2646</v>
+      </c>
+      <c r="J23" s="26">
+        <v>2724</v>
+      </c>
+      <c r="K23" s="26">
+        <v>3127</v>
+      </c>
+      <c r="L23" s="26">
+        <v>3031</v>
+      </c>
+      <c r="M23" s="26">
+        <v>3064</v>
+      </c>
+      <c r="N23" s="27">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="15" thickBot="1">
+      <c r="C24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1433</v>
+      </c>
+      <c r="E24" s="14">
+        <v>75</v>
+      </c>
+      <c r="F24" s="25">
+        <v>3614</v>
+      </c>
+      <c r="G24" s="14">
+        <v>2769</v>
+      </c>
+      <c r="H24" s="14">
+        <v>2751</v>
+      </c>
+      <c r="I24" s="14">
+        <v>3076</v>
+      </c>
+      <c r="J24" s="14">
+        <v>3073</v>
+      </c>
+      <c r="K24" s="28">
+        <v>3466</v>
+      </c>
+      <c r="L24" s="28">
+        <v>3392</v>
+      </c>
+      <c r="M24" s="28">
+        <v>3414</v>
+      </c>
+      <c r="N24" s="29">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="15" thickTop="1"/>
+    <row r="27" spans="3:14">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="30" spans="3:14" ht="21" customHeight="1">
+      <c r="C30" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="G31" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="G32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1">
-      <c r="B6" s="4"/>
-      <c r="C6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="13">
-        <v>269</v>
-      </c>
-      <c r="E6" s="13">
-        <v>10</v>
-      </c>
-      <c r="F6" s="14">
-        <v>295</v>
-      </c>
-      <c r="G6" s="15">
-        <v>268</v>
-      </c>
-      <c r="H6" s="15">
-        <v>268</v>
-      </c>
-      <c r="I6" s="15">
-        <v>268</v>
-      </c>
-      <c r="J6" s="15">
-        <v>268</v>
-      </c>
-      <c r="K6" s="15">
-        <v>268</v>
-      </c>
-      <c r="L6" s="15">
-        <v>268</v>
-      </c>
-      <c r="M6" s="15">
-        <v>268</v>
-      </c>
-      <c r="N6" s="20">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="4"/>
-      <c r="C7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9">
-        <v>878</v>
-      </c>
-      <c r="E7" s="9">
-        <v>20</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1024</v>
-      </c>
-      <c r="G7" s="10">
-        <v>876</v>
-      </c>
-      <c r="H7" s="10">
-        <v>876</v>
-      </c>
-      <c r="I7" s="10">
-        <v>876</v>
-      </c>
-      <c r="J7" s="10">
-        <v>876</v>
-      </c>
-      <c r="K7" s="10">
-        <v>876</v>
-      </c>
-      <c r="L7" s="10">
-        <v>876</v>
-      </c>
-      <c r="M7" s="10">
-        <v>876</v>
-      </c>
-      <c r="N7" s="22">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="4"/>
-      <c r="C8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="9">
-        <v>20</v>
-      </c>
-      <c r="E8" s="9">
-        <v>4</v>
-      </c>
-      <c r="F8" s="8">
-        <v>35</v>
-      </c>
-      <c r="G8" s="10">
-        <v>17</v>
-      </c>
-      <c r="H8" s="10">
-        <v>17</v>
-      </c>
-      <c r="I8" s="10">
-        <v>17</v>
-      </c>
-      <c r="J8" s="10">
-        <v>17</v>
-      </c>
-      <c r="K8" s="10">
-        <v>17</v>
-      </c>
-      <c r="L8" s="10">
-        <v>17</v>
-      </c>
-      <c r="M8" s="10">
-        <v>17</v>
-      </c>
-      <c r="N8" s="22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="4"/>
-      <c r="C9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9">
-        <v>11</v>
-      </c>
-      <c r="E9" s="9">
-        <v>4</v>
-      </c>
-      <c r="F9" s="8">
-        <v>23</v>
-      </c>
-      <c r="G9" s="10">
-        <v>10</v>
-      </c>
-      <c r="H9" s="10">
-        <v>10</v>
-      </c>
-      <c r="I9" s="10">
-        <v>10</v>
-      </c>
-      <c r="J9" s="10">
-        <v>10</v>
-      </c>
-      <c r="K9" s="10">
-        <v>10</v>
-      </c>
-      <c r="L9" s="10">
-        <v>10</v>
-      </c>
-      <c r="M9" s="10">
-        <v>10</v>
-      </c>
-      <c r="N9" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="4"/>
-      <c r="C10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="9">
-        <v>375</v>
-      </c>
-      <c r="E10" s="9">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8">
-        <v>481.07</v>
-      </c>
-      <c r="G10" s="10">
-        <v>375</v>
-      </c>
-      <c r="H10" s="10">
-        <v>375</v>
-      </c>
-      <c r="I10" s="10">
-        <v>375</v>
-      </c>
-      <c r="J10" s="10">
-        <v>375</v>
-      </c>
-      <c r="K10" s="10">
-        <v>375</v>
-      </c>
-      <c r="L10" s="10">
-        <v>375</v>
-      </c>
-      <c r="M10" s="10">
-        <v>375</v>
-      </c>
-      <c r="N10" s="22">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="11">
-        <v>60</v>
-      </c>
-      <c r="E11" s="11">
-        <v>10</v>
-      </c>
-      <c r="F11" s="11">
-        <v>52</v>
-      </c>
-      <c r="G11" s="11">
-        <v>52</v>
-      </c>
-      <c r="H11" s="11">
-        <v>52</v>
-      </c>
-      <c r="I11" s="11">
-        <v>52</v>
-      </c>
-      <c r="J11" s="11">
-        <v>52</v>
-      </c>
-      <c r="K11" s="11">
-        <v>52</v>
-      </c>
-      <c r="L11" s="11">
-        <v>52</v>
-      </c>
-      <c r="M11" s="11">
-        <v>52</v>
-      </c>
-      <c r="N11" s="24">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="4"/>
-      <c r="C12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="9">
-        <v>50</v>
-      </c>
-      <c r="E12" s="9">
-        <v>7</v>
-      </c>
-      <c r="F12" s="8">
-        <v>107</v>
-      </c>
-      <c r="G12" s="10">
-        <v>48</v>
-      </c>
-      <c r="H12" s="10">
-        <v>48</v>
-      </c>
-      <c r="I12" s="10">
-        <v>48</v>
-      </c>
-      <c r="J12" s="10">
-        <v>48</v>
-      </c>
-      <c r="K12" s="10">
-        <v>48</v>
-      </c>
-      <c r="L12" s="10">
-        <v>48</v>
-      </c>
-      <c r="M12" s="10">
-        <v>48</v>
-      </c>
-      <c r="N12" s="22">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="4"/>
-      <c r="C13" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="12">
-        <v>10000</v>
-      </c>
-      <c r="E13" s="11">
-        <v>23</v>
-      </c>
-      <c r="F13" s="11">
-        <v>9776</v>
-      </c>
-      <c r="G13" s="11">
-        <v>9776</v>
-      </c>
-      <c r="H13" s="11">
-        <v>9776</v>
-      </c>
-      <c r="I13" s="11">
-        <v>9776</v>
-      </c>
-      <c r="J13" s="11">
-        <v>9776</v>
-      </c>
-      <c r="K13" s="11">
-        <v>9776</v>
-      </c>
-      <c r="L13" s="11">
-        <v>9776</v>
-      </c>
-      <c r="M13" s="11">
-        <v>9776</v>
-      </c>
-      <c r="N13" s="24">
-        <v>9776</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="4"/>
-      <c r="C14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="9">
-        <v>80</v>
-      </c>
-      <c r="E14" s="9">
-        <v>5</v>
-      </c>
-      <c r="F14" s="8">
-        <v>130</v>
-      </c>
-      <c r="G14" s="10">
-        <v>72</v>
-      </c>
-      <c r="H14" s="10">
-        <v>72</v>
-      </c>
-      <c r="I14" s="10">
-        <v>72</v>
-      </c>
-      <c r="J14" s="10">
-        <v>72</v>
-      </c>
-      <c r="K14" s="10">
-        <v>72</v>
-      </c>
-      <c r="L14" s="10">
-        <v>72</v>
-      </c>
-      <c r="M14" s="10">
-        <v>72</v>
-      </c>
-      <c r="N14" s="22">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="4"/>
-      <c r="C15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="9">
-        <v>879</v>
-      </c>
-      <c r="E15" s="9">
-        <v>20</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1025</v>
-      </c>
-      <c r="G15" s="10">
-        <v>878</v>
-      </c>
-      <c r="H15" s="10">
-        <v>878</v>
-      </c>
-      <c r="I15" s="10">
-        <v>878</v>
-      </c>
-      <c r="J15" s="10">
-        <v>878</v>
-      </c>
-      <c r="K15" s="10">
-        <v>878</v>
-      </c>
-      <c r="L15" s="10">
-        <v>878</v>
-      </c>
-      <c r="M15" s="10">
-        <v>878</v>
-      </c>
-      <c r="N15" s="22">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="4"/>
-      <c r="C16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="9">
-        <v>577</v>
-      </c>
-      <c r="E16" s="9">
-        <v>30</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1437</v>
-      </c>
-      <c r="G16" s="10">
-        <v>576</v>
-      </c>
-      <c r="H16" s="10">
-        <v>576</v>
-      </c>
-      <c r="I16" s="10">
-        <v>576</v>
-      </c>
-      <c r="J16" s="10">
-        <v>576</v>
-      </c>
-      <c r="K16" s="10">
-        <v>576</v>
-      </c>
-      <c r="L16" s="10">
-        <v>576</v>
-      </c>
-      <c r="M16" s="10">
-        <v>576</v>
-      </c>
-      <c r="N16" s="22">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="4"/>
-      <c r="C17" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="9">
-        <v>655</v>
-      </c>
-      <c r="E17" s="9">
-        <v>35</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1689</v>
-      </c>
-      <c r="G17" s="10">
-        <v>654</v>
-      </c>
-      <c r="H17" s="10">
-        <v>654</v>
-      </c>
-      <c r="I17" s="10">
-        <v>654</v>
-      </c>
-      <c r="J17" s="10">
-        <v>654</v>
-      </c>
-      <c r="K17" s="10">
-        <v>654</v>
-      </c>
-      <c r="L17" s="10">
-        <v>654</v>
-      </c>
-      <c r="M17" s="10">
-        <v>654</v>
-      </c>
-      <c r="N17" s="22">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="4"/>
-      <c r="C18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9">
-        <v>819</v>
-      </c>
-      <c r="E18" s="9">
-        <v>40</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1821</v>
-      </c>
-      <c r="G18" s="10">
-        <v>818</v>
-      </c>
-      <c r="H18" s="10">
-        <v>818</v>
-      </c>
-      <c r="I18" s="10">
-        <v>818</v>
-      </c>
-      <c r="J18" s="10">
-        <v>818</v>
-      </c>
-      <c r="K18" s="10">
-        <v>818</v>
-      </c>
-      <c r="L18" s="10">
-        <v>818</v>
-      </c>
-      <c r="M18" s="10">
-        <v>818</v>
-      </c>
-      <c r="N18" s="22">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="4"/>
-      <c r="C19" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="9">
-        <v>907</v>
-      </c>
-      <c r="E19" s="9">
-        <v>45</v>
-      </c>
-      <c r="F19" s="8">
-        <v>2033</v>
-      </c>
-      <c r="G19" s="10">
-        <v>906</v>
-      </c>
-      <c r="H19" s="10">
-        <v>906</v>
-      </c>
-      <c r="I19" s="10">
-        <v>906</v>
-      </c>
-      <c r="J19" s="10">
-        <v>906</v>
-      </c>
-      <c r="K19" s="10">
-        <v>906</v>
-      </c>
-      <c r="L19" s="10">
-        <v>906</v>
-      </c>
-      <c r="M19" s="10">
-        <v>906</v>
-      </c>
-      <c r="N19" s="22">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="4"/>
-      <c r="C20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="9">
-        <v>882</v>
-      </c>
-      <c r="E20" s="9">
-        <v>50</v>
-      </c>
-      <c r="F20" s="8">
-        <v>2440</v>
-      </c>
-      <c r="G20" s="10">
-        <v>880</v>
-      </c>
-      <c r="H20" s="10">
-        <v>880</v>
-      </c>
-      <c r="I20" s="10">
-        <v>880</v>
-      </c>
-      <c r="J20" s="10">
-        <v>880</v>
-      </c>
-      <c r="K20" s="10">
-        <v>880</v>
-      </c>
-      <c r="L20" s="10">
-        <v>880</v>
-      </c>
-      <c r="M20" s="10">
-        <v>880</v>
-      </c>
-      <c r="N20" s="22">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="4"/>
-      <c r="C21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1050</v>
-      </c>
-      <c r="E21" s="9">
-        <v>55</v>
-      </c>
-      <c r="F21" s="8">
-        <v>2651</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1048</v>
-      </c>
-      <c r="H21" s="10">
-        <v>1048</v>
-      </c>
-      <c r="I21" s="10">
-        <v>1048</v>
-      </c>
-      <c r="J21" s="10">
-        <v>1048</v>
-      </c>
-      <c r="K21" s="10">
-        <v>1048</v>
-      </c>
-      <c r="L21" s="10">
-        <v>1048</v>
-      </c>
-      <c r="M21" s="10">
-        <v>1048</v>
-      </c>
-      <c r="N21" s="22">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="4"/>
-      <c r="C22" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1006</v>
-      </c>
-      <c r="E22" s="9">
-        <v>60</v>
-      </c>
-      <c r="F22" s="8">
-        <v>2917</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1004</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1004</v>
-      </c>
-      <c r="I22" s="10">
-        <v>1004</v>
-      </c>
-      <c r="J22" s="10">
-        <v>1004</v>
-      </c>
-      <c r="K22" s="10">
-        <v>1004</v>
-      </c>
-      <c r="L22" s="10">
-        <v>1004</v>
-      </c>
-      <c r="M22" s="10">
-        <v>1004</v>
-      </c>
-      <c r="N22" s="22">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="4"/>
-      <c r="C23" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1319</v>
-      </c>
-      <c r="E23" s="9">
-        <v>65</v>
-      </c>
-      <c r="F23" s="8">
-        <v>2817</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1318</v>
-      </c>
-      <c r="H23" s="10">
-        <v>1318</v>
-      </c>
-      <c r="I23" s="10">
-        <v>1318</v>
-      </c>
-      <c r="J23" s="10">
-        <v>1318</v>
-      </c>
-      <c r="K23" s="10">
-        <v>1318</v>
-      </c>
-      <c r="L23" s="10">
-        <v>1318</v>
-      </c>
-      <c r="M23" s="10">
-        <v>1318</v>
-      </c>
-      <c r="N23" s="22">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="4"/>
-      <c r="C24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="9">
-        <v>1426</v>
-      </c>
-      <c r="E24" s="9">
-        <v>70</v>
-      </c>
-      <c r="F24" s="8">
-        <v>3223</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1424</v>
-      </c>
-      <c r="H24" s="10">
-        <v>1424</v>
-      </c>
-      <c r="I24" s="10">
-        <v>1424</v>
-      </c>
-      <c r="J24" s="10">
-        <v>1424</v>
-      </c>
-      <c r="K24" s="10">
-        <v>1424</v>
-      </c>
-      <c r="L24" s="10">
-        <v>1424</v>
-      </c>
-      <c r="M24" s="10">
-        <v>1424</v>
-      </c>
-      <c r="N24" s="22">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="15" thickBot="1">
-      <c r="B25" s="4"/>
-      <c r="C25" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="26">
-        <v>1433</v>
-      </c>
-      <c r="E25" s="26">
-        <v>75</v>
-      </c>
-      <c r="F25" s="27">
-        <v>3614</v>
-      </c>
-      <c r="G25" s="28">
-        <v>1432</v>
-      </c>
-      <c r="H25" s="28">
-        <v>1432</v>
-      </c>
-      <c r="I25" s="28">
-        <v>1432</v>
-      </c>
-      <c r="J25" s="28">
-        <v>1432</v>
-      </c>
-      <c r="K25" s="28">
-        <v>1432</v>
-      </c>
-      <c r="L25" s="28">
-        <v>1432</v>
-      </c>
-      <c r="M25" s="28">
-        <v>1430</v>
-      </c>
-      <c r="N25" s="29">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="15" thickTop="1"/>
-    <row r="29" spans="2:14" ht="21" customHeight="1">
-      <c r="C29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="G30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="G31" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="G32" s="3">
-        <v>269</v>
-      </c>
-      <c r="H32" s="3">
-        <v>269</v>
-      </c>
-      <c r="I32" s="3">
-        <v>269</v>
-      </c>
-      <c r="J32" s="3">
-        <v>269</v>
-      </c>
-      <c r="K32" s="3">
-        <v>269</v>
-      </c>
-      <c r="L32" s="3">
-        <v>269</v>
-      </c>
-      <c r="M32" s="3">
-        <v>269</v>
-      </c>
-      <c r="N32" s="3">
-        <v>269</v>
       </c>
     </row>
     <row r="33" spans="7:14">
       <c r="G33" s="3">
-        <v>878</v>
+        <v>295</v>
       </c>
       <c r="H33" s="3">
-        <v>878</v>
+        <v>295</v>
       </c>
       <c r="I33" s="3">
-        <v>878</v>
+        <v>295</v>
       </c>
       <c r="J33" s="3">
-        <v>876</v>
+        <v>295</v>
       </c>
       <c r="K33" s="3">
-        <v>836</v>
+        <v>295</v>
       </c>
       <c r="L33" s="3">
-        <v>819</v>
+        <v>295</v>
       </c>
       <c r="M33" s="3">
-        <v>851</v>
+        <v>295</v>
       </c>
       <c r="N33" s="3">
-        <v>868</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="7:14">
       <c r="G34" s="3">
-        <v>20</v>
+        <v>908</v>
       </c>
       <c r="H34" s="3">
-        <v>20</v>
+        <v>868</v>
       </c>
       <c r="I34" s="3">
-        <v>20</v>
+        <v>951</v>
       </c>
       <c r="J34" s="3">
-        <v>20</v>
+        <v>976</v>
       </c>
       <c r="K34" s="3">
-        <v>20</v>
+        <v>976</v>
       </c>
       <c r="L34" s="3">
-        <v>20</v>
+        <v>976</v>
       </c>
       <c r="M34" s="3">
-        <v>20</v>
+        <v>976</v>
       </c>
       <c r="N34" s="3">
-        <v>20</v>
+        <v>976</v>
       </c>
     </row>
     <row r="35" spans="7:14">
       <c r="G35" s="3">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H35" s="3">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I35" s="3">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J35" s="3">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K35" s="3">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L35" s="3">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M35" s="3">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="N35" s="3">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="7:14">
       <c r="G36" s="3">
-        <v>375</v>
+        <v>23</v>
       </c>
       <c r="H36" s="3">
-        <v>375</v>
+        <v>23</v>
       </c>
       <c r="I36" s="3">
-        <v>375</v>
+        <v>23</v>
       </c>
       <c r="J36" s="3">
-        <v>375</v>
+        <v>23</v>
       </c>
       <c r="K36" s="3">
-        <v>375</v>
+        <v>23</v>
       </c>
       <c r="L36" s="3">
-        <v>375</v>
+        <v>23</v>
       </c>
       <c r="M36" s="3">
-        <v>375</v>
+        <v>23</v>
       </c>
       <c r="N36" s="3">
-        <v>375</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="7:14">
       <c r="G37" s="3">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="H37" s="3">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="I37" s="3">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="J37" s="3">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="K37" s="3">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="L37" s="3">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="M37" s="3">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="N37" s="3">
-        <v>60</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="7:14">
       <c r="G38" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H38" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I38" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J38" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K38" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L38" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M38" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N38" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="7:14">
       <c r="G39" s="3">
-        <v>9774</v>
+        <v>107</v>
       </c>
       <c r="H39" s="3">
-        <v>9767</v>
+        <v>107</v>
       </c>
       <c r="I39" s="3">
-        <v>9777</v>
+        <v>107</v>
       </c>
       <c r="J39" s="3">
-        <v>9761</v>
+        <v>107</v>
       </c>
       <c r="K39" s="3">
-        <v>9765</v>
+        <v>107</v>
       </c>
       <c r="L39" s="3">
-        <v>9775</v>
+        <v>107</v>
       </c>
       <c r="M39" s="3">
-        <v>9774</v>
+        <v>107</v>
       </c>
       <c r="N39" s="3">
-        <v>9766</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="7:14">
       <c r="G40" s="3">
-        <v>76</v>
+        <v>9763</v>
       </c>
       <c r="H40" s="3">
-        <v>76</v>
+        <v>9759</v>
       </c>
       <c r="I40" s="3">
-        <v>76</v>
+        <v>9766</v>
       </c>
       <c r="J40" s="3">
-        <v>76</v>
+        <v>9767</v>
       </c>
       <c r="K40" s="3">
-        <v>76</v>
+        <v>9767</v>
       </c>
       <c r="L40" s="3">
-        <v>76</v>
+        <v>9765</v>
       </c>
       <c r="M40" s="3">
-        <v>76</v>
+        <v>9765</v>
       </c>
       <c r="N40" s="3">
-        <v>76</v>
+        <v>9765</v>
       </c>
     </row>
     <row r="41" spans="7:14">
       <c r="G41" s="3">
-        <v>876</v>
+        <v>130</v>
       </c>
       <c r="H41" s="3">
-        <v>877</v>
+        <v>130</v>
       </c>
       <c r="I41" s="3">
-        <v>875</v>
+        <v>130</v>
       </c>
       <c r="J41" s="3">
-        <v>869</v>
+        <v>130</v>
       </c>
       <c r="K41" s="3">
-        <v>788</v>
+        <v>130</v>
       </c>
       <c r="L41" s="3">
-        <v>799</v>
+        <v>130</v>
       </c>
       <c r="M41" s="3">
-        <v>866</v>
+        <v>130</v>
       </c>
       <c r="N41" s="3">
-        <v>878</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="G42" s="3">
-        <v>577</v>
+        <v>965</v>
       </c>
       <c r="H42" s="3">
-        <v>577</v>
+        <v>965</v>
       </c>
       <c r="I42" s="3">
-        <v>577</v>
+        <v>1019</v>
       </c>
       <c r="J42" s="3">
-        <v>577</v>
+        <v>1025</v>
       </c>
       <c r="K42" s="3">
-        <v>540</v>
+        <v>1025</v>
       </c>
       <c r="L42" s="3">
-        <v>544</v>
+        <v>1025</v>
       </c>
       <c r="M42" s="3">
-        <v>574</v>
+        <v>1025</v>
       </c>
       <c r="N42" s="3">
-        <v>577</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="G43" s="3">
-        <v>655</v>
+        <v>1339</v>
       </c>
       <c r="H43" s="3">
-        <v>652</v>
+        <v>1197</v>
       </c>
       <c r="I43" s="3">
-        <v>655</v>
+        <v>1221</v>
       </c>
       <c r="J43" s="3">
-        <v>655</v>
+        <v>1363</v>
       </c>
       <c r="K43" s="3">
-        <v>635</v>
+        <v>1409</v>
       </c>
       <c r="L43" s="3">
-        <v>565</v>
+        <v>1419</v>
       </c>
       <c r="M43" s="3">
-        <v>650</v>
+        <v>1437</v>
       </c>
       <c r="N43" s="3">
-        <v>650</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="G44" s="3">
-        <v>817</v>
+        <v>1380</v>
       </c>
       <c r="H44" s="3">
-        <v>818</v>
+        <v>1364</v>
       </c>
       <c r="I44" s="3">
-        <v>819</v>
+        <v>1537</v>
       </c>
       <c r="J44" s="3">
-        <v>813</v>
+        <v>1596</v>
       </c>
       <c r="K44" s="3">
-        <v>709</v>
+        <v>1671</v>
       </c>
       <c r="L44" s="3">
-        <v>655</v>
+        <v>1671</v>
       </c>
       <c r="M44" s="3">
-        <v>746</v>
+        <v>1676</v>
       </c>
       <c r="N44" s="3">
-        <v>812</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="G45" s="3">
-        <v>906</v>
+        <v>1394</v>
       </c>
       <c r="H45" s="3">
-        <v>907</v>
+        <v>1350</v>
       </c>
       <c r="I45" s="3">
-        <v>906</v>
+        <v>1518</v>
       </c>
       <c r="J45" s="3">
-        <v>905</v>
+        <v>1664</v>
       </c>
       <c r="K45" s="3">
-        <v>820</v>
+        <v>1747</v>
       </c>
       <c r="L45" s="3">
-        <v>726</v>
+        <v>1702</v>
       </c>
       <c r="M45" s="3">
-        <v>867</v>
+        <v>1750</v>
       </c>
       <c r="N45" s="3">
-        <v>899</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="G46" s="3">
-        <v>882</v>
+        <v>1437</v>
       </c>
       <c r="H46" s="3">
-        <v>881</v>
+        <v>1504</v>
       </c>
       <c r="I46" s="3">
-        <v>882</v>
+        <v>1542</v>
       </c>
       <c r="J46" s="3">
-        <v>880</v>
+        <v>1664</v>
       </c>
       <c r="K46" s="3">
-        <v>752</v>
+        <v>2033</v>
       </c>
       <c r="L46" s="3">
-        <v>767</v>
+        <v>1822</v>
       </c>
       <c r="M46" s="3">
-        <v>839</v>
+        <v>2033</v>
       </c>
       <c r="N46" s="3">
-        <v>820</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="G47" s="3">
-        <v>1050</v>
+        <v>1809</v>
       </c>
       <c r="H47" s="3">
-        <v>1050</v>
+        <v>1681</v>
       </c>
       <c r="I47" s="3">
-        <v>1050</v>
+        <v>2135</v>
       </c>
       <c r="J47" s="3">
-        <v>1046</v>
+        <v>1924</v>
       </c>
       <c r="K47" s="3">
-        <v>879</v>
+        <v>2380</v>
       </c>
       <c r="L47" s="3">
-        <v>881</v>
+        <v>2294</v>
       </c>
       <c r="M47" s="3">
-        <v>983</v>
+        <v>2389</v>
       </c>
       <c r="N47" s="3">
-        <v>993</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="G48" s="3">
-        <v>1006</v>
+        <v>1928</v>
       </c>
       <c r="H48" s="3">
-        <v>1006</v>
+        <v>1940</v>
       </c>
       <c r="I48" s="3">
-        <v>1005</v>
+        <v>2089</v>
       </c>
       <c r="J48" s="3">
-        <v>1005</v>
+        <v>2305</v>
       </c>
       <c r="K48" s="3">
-        <v>865</v>
+        <v>2457</v>
       </c>
       <c r="L48" s="3">
-        <v>794</v>
+        <v>2552</v>
       </c>
       <c r="M48" s="3">
-        <v>872</v>
+        <v>2401</v>
       </c>
       <c r="N48" s="3">
-        <v>923</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="49" spans="3:14">
       <c r="G49" s="3">
-        <v>1314</v>
+        <v>2119</v>
       </c>
       <c r="H49" s="3">
-        <v>1318</v>
+        <v>1986</v>
       </c>
       <c r="I49" s="3">
-        <v>1319</v>
+        <v>2104</v>
       </c>
       <c r="J49" s="3">
-        <v>1319</v>
+        <v>2229</v>
       </c>
       <c r="K49" s="3">
-        <v>1086</v>
+        <v>2835</v>
       </c>
       <c r="L49" s="3">
-        <v>1059</v>
+        <v>2685</v>
       </c>
       <c r="M49" s="3">
-        <v>1140</v>
+        <v>2769</v>
       </c>
       <c r="N49" s="3">
-        <v>1154</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="50" spans="3:14">
       <c r="G50" s="3">
-        <v>1426</v>
+        <v>2158</v>
       </c>
       <c r="H50" s="3">
-        <v>1389</v>
+        <v>1923</v>
       </c>
       <c r="I50" s="3">
-        <v>1424</v>
+        <v>2113</v>
       </c>
       <c r="J50" s="3">
-        <v>1390</v>
+        <v>2193</v>
       </c>
       <c r="K50" s="3">
-        <v>1178</v>
+        <v>2738</v>
       </c>
       <c r="L50" s="3">
-        <v>1155</v>
+        <v>2524</v>
       </c>
       <c r="M50" s="3">
-        <v>1193</v>
+        <v>2619</v>
       </c>
       <c r="N50" s="3">
-        <v>1272</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="51" spans="3:14">
       <c r="G51" s="3">
-        <v>1430</v>
+        <v>2276</v>
       </c>
       <c r="H51" s="3">
-        <v>1394</v>
+        <v>2203</v>
       </c>
       <c r="I51" s="3">
-        <v>1425</v>
+        <v>2350</v>
       </c>
       <c r="J51" s="3">
-        <v>1390</v>
+        <v>2398</v>
       </c>
       <c r="K51" s="3">
-        <v>1219</v>
+        <v>2915</v>
       </c>
       <c r="L51" s="3">
-        <v>1078</v>
+        <v>2923</v>
       </c>
       <c r="M51" s="3">
-        <v>1265</v>
+        <v>3079</v>
       </c>
       <c r="N51" s="3">
-        <v>1326</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="52" spans="3:14">
-      <c r="G52" s="6">
-        <f>SUM(G32:G51)</f>
-        <v>22452</v>
-      </c>
-      <c r="H52" s="6">
-        <f>SUM(H32:H51)</f>
-        <v>22375</v>
-      </c>
-      <c r="I52" s="6">
-        <f>SUM(I32:I51)</f>
-        <v>22453</v>
-      </c>
-      <c r="J52" s="6">
-        <f>SUM(J32:J51)</f>
-        <v>22347</v>
-      </c>
-      <c r="K52" s="6">
-        <f>SUM(K32:K51)</f>
-        <v>20933</v>
-      </c>
-      <c r="L52" s="6">
-        <f>SUM(L32:L51)</f>
-        <v>20478</v>
-      </c>
-      <c r="M52" s="6">
-        <f>SUM(M32:M51)</f>
-        <v>21481</v>
-      </c>
-      <c r="N52" s="6">
-        <f>SUM(N32:N51)</f>
-        <v>21799</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" ht="15" thickBot="1"/>
-    <row r="55" spans="3:14" ht="16" thickTop="1" thickBot="1">
-      <c r="G55" s="32" t="s">
+      <c r="G52" s="3">
+        <v>2563</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2463</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2782</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2684</v>
+      </c>
+      <c r="K52" s="3">
+        <v>3388</v>
+      </c>
+      <c r="L52" s="3">
+        <v>3360</v>
+      </c>
+      <c r="M52" s="3">
+        <v>3429</v>
+      </c>
+      <c r="N52" s="3">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14">
+      <c r="G53" s="4">
+        <f t="shared" ref="G53:N53" si="0">SUM(G33:G52)</f>
+        <v>31162</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" si="0"/>
+        <v>30326</v>
+      </c>
+      <c r="I53" s="4">
+        <f t="shared" si="0"/>
+        <v>32250</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="0"/>
+        <v>32911</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="0"/>
+        <v>36464</v>
+      </c>
+      <c r="L53" s="4">
+        <f t="shared" si="0"/>
+        <v>35841</v>
+      </c>
+      <c r="M53" s="4">
+        <f t="shared" si="0"/>
+        <v>36471</v>
+      </c>
+      <c r="N53" s="4">
+        <f t="shared" si="0"/>
+        <v>35490</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" ht="15" thickBot="1"/>
+    <row r="56" spans="3:14" ht="16" thickTop="1" thickBot="1">
+      <c r="G56" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="34"/>
-    </row>
-    <row r="56" spans="3:14" ht="16" thickTop="1" thickBot="1">
-      <c r="C56" s="16" t="s">
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="34"/>
+    </row>
+    <row r="57" spans="3:14" ht="16" thickTop="1" thickBot="1">
+      <c r="C57" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D57" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E57" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F57" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="30" t="s">
+      <c r="G57" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K57" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H56" s="30" t="s">
+      <c r="L57" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I56" s="30" t="s">
+      <c r="M57" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J56" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="K56" s="30" t="s">
+      <c r="N57" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" ht="15" thickTop="1">
+      <c r="C58" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="7">
+        <v>269</v>
+      </c>
+      <c r="E58" s="7">
+        <v>10</v>
+      </c>
+      <c r="F58" s="22">
+        <v>295</v>
+      </c>
+      <c r="G58" s="6">
+        <v>295</v>
+      </c>
+      <c r="H58" s="6">
+        <v>295</v>
+      </c>
+      <c r="I58" s="6">
+        <v>295</v>
+      </c>
+      <c r="J58" s="6">
+        <v>295</v>
+      </c>
+      <c r="K58" s="6">
+        <v>295</v>
+      </c>
+      <c r="L58" s="6">
+        <v>295</v>
+      </c>
+      <c r="M58" s="6">
+        <v>295</v>
+      </c>
+      <c r="N58" s="12">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14">
+      <c r="C59" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="5">
+        <v>878</v>
+      </c>
+      <c r="E59" s="5">
+        <v>20</v>
+      </c>
+      <c r="F59" s="23">
+        <v>1024</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1024</v>
+      </c>
+      <c r="H59" s="6">
+        <v>1024</v>
+      </c>
+      <c r="I59" s="6">
+        <v>1024</v>
+      </c>
+      <c r="J59" s="6">
+        <v>1024</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1024</v>
+      </c>
+      <c r="L59" s="6">
+        <v>1024</v>
+      </c>
+      <c r="M59" s="6">
+        <v>1024</v>
+      </c>
+      <c r="N59" s="12">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14">
+      <c r="C60" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="18">
+        <v>20</v>
+      </c>
+      <c r="E60" s="18">
         <v>4</v>
       </c>
-      <c r="L56" s="30" t="s">
+      <c r="F60" s="24">
+        <v>35</v>
+      </c>
+      <c r="G60" s="6">
+        <v>35</v>
+      </c>
+      <c r="H60" s="6">
+        <v>35</v>
+      </c>
+      <c r="I60" s="6">
+        <v>35</v>
+      </c>
+      <c r="J60" s="6">
+        <v>35</v>
+      </c>
+      <c r="K60" s="6">
+        <v>35</v>
+      </c>
+      <c r="L60" s="6">
+        <v>35</v>
+      </c>
+      <c r="M60" s="6">
+        <v>35</v>
+      </c>
+      <c r="N60" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14">
+      <c r="C61" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="18">
+        <v>11</v>
+      </c>
+      <c r="E61" s="18">
+        <v>4</v>
+      </c>
+      <c r="F61" s="24">
+        <v>23</v>
+      </c>
+      <c r="G61" s="6">
+        <v>23</v>
+      </c>
+      <c r="H61" s="6">
+        <v>23</v>
+      </c>
+      <c r="I61" s="6">
+        <v>23</v>
+      </c>
+      <c r="J61" s="6">
+        <v>23</v>
+      </c>
+      <c r="K61" s="6">
+        <v>23</v>
+      </c>
+      <c r="L61" s="6">
+        <v>23</v>
+      </c>
+      <c r="M61" s="6">
+        <v>23</v>
+      </c>
+      <c r="N61" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14">
+      <c r="C62" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="18">
+        <v>375</v>
+      </c>
+      <c r="E62" s="18">
+        <v>15</v>
+      </c>
+      <c r="F62" s="24">
+        <v>481.07</v>
+      </c>
+      <c r="G62" s="6">
+        <v>481</v>
+      </c>
+      <c r="H62" s="6">
+        <v>481</v>
+      </c>
+      <c r="I62" s="6">
+        <v>481</v>
+      </c>
+      <c r="J62" s="6">
+        <v>481</v>
+      </c>
+      <c r="K62" s="6">
+        <v>481</v>
+      </c>
+      <c r="L62" s="6">
+        <v>481</v>
+      </c>
+      <c r="M62" s="6">
+        <v>481</v>
+      </c>
+      <c r="N62" s="12">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14">
+      <c r="C63" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="18">
+        <v>60</v>
+      </c>
+      <c r="E63" s="18">
+        <v>10</v>
+      </c>
+      <c r="F63" s="24">
+        <v>52</v>
+      </c>
+      <c r="G63" s="6">
+        <v>52</v>
+      </c>
+      <c r="H63" s="6">
+        <v>52</v>
+      </c>
+      <c r="I63" s="6">
+        <v>52</v>
+      </c>
+      <c r="J63" s="6">
+        <v>52</v>
+      </c>
+      <c r="K63" s="6">
+        <v>52</v>
+      </c>
+      <c r="L63" s="6">
+        <v>52</v>
+      </c>
+      <c r="M63" s="6">
+        <v>52</v>
+      </c>
+      <c r="N63" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14">
+      <c r="C64" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="18">
+        <v>50</v>
+      </c>
+      <c r="E64" s="18">
+        <v>7</v>
+      </c>
+      <c r="F64" s="24">
+        <v>107</v>
+      </c>
+      <c r="G64" s="6">
+        <v>107</v>
+      </c>
+      <c r="H64" s="6">
+        <v>107</v>
+      </c>
+      <c r="I64" s="6">
+        <v>107</v>
+      </c>
+      <c r="J64" s="6">
+        <v>107</v>
+      </c>
+      <c r="K64" s="6">
+        <v>107</v>
+      </c>
+      <c r="L64" s="6">
+        <v>107</v>
+      </c>
+      <c r="M64" s="6">
+        <v>107</v>
+      </c>
+      <c r="N64" s="12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14">
+      <c r="C65" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E65" s="18">
+        <v>23</v>
+      </c>
+      <c r="F65" s="24">
+        <v>9767</v>
+      </c>
+      <c r="G65" s="18">
+        <v>9765</v>
+      </c>
+      <c r="H65" s="6">
+        <v>9767</v>
+      </c>
+      <c r="I65" s="18">
+        <v>9765</v>
+      </c>
+      <c r="J65" s="6">
+        <v>9767</v>
+      </c>
+      <c r="K65" s="6">
+        <v>9767</v>
+      </c>
+      <c r="L65" s="6">
+        <v>9767</v>
+      </c>
+      <c r="M65" s="6">
+        <v>9767</v>
+      </c>
+      <c r="N65" s="20">
+        <v>9765</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14">
+      <c r="C66" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="18">
+        <v>80</v>
+      </c>
+      <c r="E66" s="18">
         <v>5</v>
       </c>
-      <c r="M56" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="N56" s="31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="3:14" ht="15" thickTop="1">
-      <c r="C57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="13">
-        <v>269</v>
-      </c>
-      <c r="E57" s="13">
-        <v>10</v>
-      </c>
-      <c r="F57" s="14">
-        <v>295</v>
-      </c>
-      <c r="G57" s="8">
-        <v>295</v>
-      </c>
-      <c r="H57" s="8">
-        <v>295</v>
-      </c>
-      <c r="I57" s="8">
-        <v>295</v>
-      </c>
-      <c r="J57" s="8">
-        <v>295</v>
-      </c>
-      <c r="K57" s="8">
-        <v>295</v>
-      </c>
-      <c r="L57" s="8">
-        <v>295</v>
-      </c>
-      <c r="M57" s="8">
-        <v>295</v>
-      </c>
-      <c r="N57" s="35">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14">
-      <c r="C58" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="9">
-        <v>878</v>
-      </c>
-      <c r="E58" s="9">
+      <c r="F66" s="24">
+        <v>130</v>
+      </c>
+      <c r="G66" s="6">
+        <v>130</v>
+      </c>
+      <c r="H66" s="6">
+        <v>130</v>
+      </c>
+      <c r="I66" s="6">
+        <v>130</v>
+      </c>
+      <c r="J66" s="6">
+        <v>130</v>
+      </c>
+      <c r="K66" s="6">
+        <v>130</v>
+      </c>
+      <c r="L66" s="6">
+        <v>130</v>
+      </c>
+      <c r="M66" s="6">
+        <v>130</v>
+      </c>
+      <c r="N66" s="12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14">
+      <c r="C67" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="18">
+        <v>879</v>
+      </c>
+      <c r="E67" s="18">
         <v>20</v>
       </c>
-      <c r="F58" s="8">
-        <v>1024</v>
-      </c>
-      <c r="G58" s="8">
-        <v>1024</v>
-      </c>
-      <c r="H58" s="8">
-        <v>1024</v>
-      </c>
-      <c r="I58" s="8">
-        <v>1024</v>
-      </c>
-      <c r="J58" s="8">
-        <v>1024</v>
-      </c>
-      <c r="K58" s="8">
-        <v>1024</v>
-      </c>
-      <c r="L58" s="8">
-        <v>1018</v>
-      </c>
-      <c r="M58" s="8">
-        <v>1024</v>
-      </c>
-      <c r="N58" s="35">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14">
-      <c r="C59" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="9">
+      <c r="F67" s="24">
+        <v>1025</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1025</v>
+      </c>
+      <c r="H67" s="6">
+        <v>1025</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1025</v>
+      </c>
+      <c r="J67" s="6">
+        <v>1025</v>
+      </c>
+      <c r="K67" s="6">
+        <v>1025</v>
+      </c>
+      <c r="L67" s="6">
+        <v>1025</v>
+      </c>
+      <c r="M67" s="6">
+        <v>1025</v>
+      </c>
+      <c r="N67" s="12">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14">
+      <c r="C68" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="18">
+        <v>577</v>
+      </c>
+      <c r="E68" s="18">
+        <v>30</v>
+      </c>
+      <c r="F68" s="24">
+        <v>1437</v>
+      </c>
+      <c r="G68" s="18">
+        <v>1321</v>
+      </c>
+      <c r="H68" s="18">
+        <v>1353</v>
+      </c>
+      <c r="I68" s="18">
+        <v>1392</v>
+      </c>
+      <c r="J68" s="18">
+        <v>1391</v>
+      </c>
+      <c r="K68" s="6">
+        <v>1437</v>
+      </c>
+      <c r="L68" s="6">
+        <v>1437</v>
+      </c>
+      <c r="M68" s="6">
+        <v>1437</v>
+      </c>
+      <c r="N68" s="12">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14">
+      <c r="C69" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="9">
-        <v>4</v>
-      </c>
-      <c r="F59" s="8">
+      <c r="D69" s="18">
+        <v>655</v>
+      </c>
+      <c r="E69" s="18">
         <v>35</v>
       </c>
-      <c r="G59" s="8">
+      <c r="F69" s="24">
+        <v>1689</v>
+      </c>
+      <c r="G69" s="18">
+        <v>1622</v>
+      </c>
+      <c r="H69" s="18">
+        <v>1581</v>
+      </c>
+      <c r="I69" s="26">
+        <v>1661</v>
+      </c>
+      <c r="J69" s="18">
+        <v>1646</v>
+      </c>
+      <c r="K69" s="26">
+        <v>1677</v>
+      </c>
+      <c r="L69" s="26">
+        <v>1686</v>
+      </c>
+      <c r="M69" s="26">
+        <v>1665</v>
+      </c>
+      <c r="N69" s="12">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14">
+      <c r="C70" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="18">
+        <v>819</v>
+      </c>
+      <c r="E70" s="18">
+        <v>40</v>
+      </c>
+      <c r="F70" s="24">
+        <v>1821</v>
+      </c>
+      <c r="G70" s="18">
+        <v>1635</v>
+      </c>
+      <c r="H70" s="18">
+        <v>1518</v>
+      </c>
+      <c r="I70" s="18">
+        <v>1620</v>
+      </c>
+      <c r="J70" s="18">
+        <v>1744</v>
+      </c>
+      <c r="K70" s="18">
+        <v>1783</v>
+      </c>
+      <c r="L70" s="18">
+        <v>1761</v>
+      </c>
+      <c r="M70" s="18">
+        <v>1777</v>
+      </c>
+      <c r="N70" s="20">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14">
+      <c r="C71" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="18">
+        <v>907</v>
+      </c>
+      <c r="E71" s="18">
+        <v>45</v>
+      </c>
+      <c r="F71" s="24">
+        <v>2033</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1749</v>
+      </c>
+      <c r="H71" s="18">
+        <v>1619</v>
+      </c>
+      <c r="I71" s="18">
+        <v>1727</v>
+      </c>
+      <c r="J71" s="18">
+        <v>1769</v>
+      </c>
+      <c r="K71" s="18">
+        <v>1969</v>
+      </c>
+      <c r="L71" s="18">
+        <v>1952</v>
+      </c>
+      <c r="M71" s="18">
+        <v>1908</v>
+      </c>
+      <c r="N71" s="20">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14">
+      <c r="C72" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="18">
+        <v>882</v>
+      </c>
+      <c r="E72" s="18">
+        <v>50</v>
+      </c>
+      <c r="F72" s="24">
+        <v>2444</v>
+      </c>
+      <c r="G72" s="6">
+        <v>2444</v>
+      </c>
+      <c r="H72" s="6">
+        <v>2444</v>
+      </c>
+      <c r="I72" s="26">
+        <v>2438</v>
+      </c>
+      <c r="J72" s="26">
+        <v>2440</v>
+      </c>
+      <c r="K72" s="6">
+        <v>2444</v>
+      </c>
+      <c r="L72" s="6">
+        <v>2444</v>
+      </c>
+      <c r="M72" s="6">
+        <v>2444</v>
+      </c>
+      <c r="N72" s="27">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14">
+      <c r="C73" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="18">
+        <v>1050</v>
+      </c>
+      <c r="E73" s="18">
+        <v>55</v>
+      </c>
+      <c r="F73" s="24">
+        <v>2651</v>
+      </c>
+      <c r="G73" s="18">
+        <v>2022</v>
+      </c>
+      <c r="H73" s="18">
+        <v>2055</v>
+      </c>
+      <c r="I73" s="18">
+        <v>2131</v>
+      </c>
+      <c r="J73" s="18">
+        <v>2392</v>
+      </c>
+      <c r="K73" s="18">
+        <v>2579</v>
+      </c>
+      <c r="L73" s="18">
+        <v>2454</v>
+      </c>
+      <c r="M73" s="18">
+        <v>2442</v>
+      </c>
+      <c r="N73" s="20">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14">
+      <c r="C74" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="18">
+        <v>1006</v>
+      </c>
+      <c r="E74" s="18">
+        <v>60</v>
+      </c>
+      <c r="F74" s="24">
+        <v>2917</v>
+      </c>
+      <c r="G74" s="18">
+        <v>2198</v>
+      </c>
+      <c r="H74" s="18">
+        <v>2175</v>
+      </c>
+      <c r="I74" s="26">
+        <v>2736</v>
+      </c>
+      <c r="J74" s="18">
+        <v>2490</v>
+      </c>
+      <c r="K74" s="26">
+        <v>2770</v>
+      </c>
+      <c r="L74" s="26">
+        <v>2680</v>
+      </c>
+      <c r="M74" s="26">
+        <v>2705</v>
+      </c>
+      <c r="N74" s="27">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14">
+      <c r="C75" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1319</v>
+      </c>
+      <c r="E75" s="5">
+        <v>65</v>
+      </c>
+      <c r="F75" s="23">
+        <v>2817</v>
+      </c>
+      <c r="G75" s="26">
+        <v>2399</v>
+      </c>
+      <c r="H75" s="5">
+        <v>2067</v>
+      </c>
+      <c r="I75" s="5">
+        <v>2239</v>
+      </c>
+      <c r="J75" s="5">
+        <v>2311</v>
+      </c>
+      <c r="K75" s="26">
+        <v>2638</v>
+      </c>
+      <c r="L75" s="26">
+        <v>2599</v>
+      </c>
+      <c r="M75" s="26">
+        <v>2513</v>
+      </c>
+      <c r="N75" s="27">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14">
+      <c r="C76" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1426</v>
+      </c>
+      <c r="E76" s="5">
+        <v>70</v>
+      </c>
+      <c r="F76" s="23">
+        <v>3223</v>
+      </c>
+      <c r="G76" s="5">
+        <v>2401</v>
+      </c>
+      <c r="H76" s="5">
+        <v>2311</v>
+      </c>
+      <c r="I76" s="5">
+        <v>2458</v>
+      </c>
+      <c r="J76" s="26">
+        <v>2708</v>
+      </c>
+      <c r="K76" s="26">
+        <v>2932</v>
+      </c>
+      <c r="L76" s="26">
+        <v>2962</v>
+      </c>
+      <c r="M76" s="26">
+        <v>2956</v>
+      </c>
+      <c r="N76" s="27">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" ht="15" thickBot="1">
+      <c r="C77" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="14">
+        <v>1433</v>
+      </c>
+      <c r="E77" s="14">
+        <v>75</v>
+      </c>
+      <c r="F77" s="25">
+        <v>3614</v>
+      </c>
+      <c r="G77" s="14">
+        <v>2774</v>
+      </c>
+      <c r="H77" s="14">
+        <v>2517</v>
+      </c>
+      <c r="I77" s="14">
+        <v>2807</v>
+      </c>
+      <c r="J77" s="14">
+        <v>2878</v>
+      </c>
+      <c r="K77" s="28">
+        <v>3335</v>
+      </c>
+      <c r="L77" s="28">
+        <v>3271</v>
+      </c>
+      <c r="M77" s="28">
+        <v>3258</v>
+      </c>
+      <c r="N77" s="29">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" ht="15" thickTop="1"/>
+    <row r="86" spans="5:14" ht="22">
+      <c r="E86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H59" s="8">
-        <v>35</v>
-      </c>
-      <c r="I59" s="8">
-        <v>35</v>
-      </c>
-      <c r="J59" s="8">
-        <v>35</v>
-      </c>
-      <c r="K59" s="8">
-        <v>35</v>
-      </c>
-      <c r="L59" s="8">
-        <v>35</v>
-      </c>
-      <c r="M59" s="8">
-        <v>35</v>
-      </c>
-      <c r="N59" s="35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14">
-      <c r="C60" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="9">
-        <v>11</v>
-      </c>
-      <c r="E60" s="9">
-        <v>4</v>
-      </c>
-      <c r="F60" s="8">
-        <v>23</v>
-      </c>
-      <c r="G60" s="8">
-        <v>23</v>
-      </c>
-      <c r="H60" s="8">
-        <v>23</v>
-      </c>
-      <c r="I60" s="8">
-        <v>23</v>
-      </c>
-      <c r="J60" s="8">
-        <v>23</v>
-      </c>
-      <c r="K60" s="8">
-        <v>22</v>
-      </c>
-      <c r="L60" s="8">
-        <v>22</v>
-      </c>
-      <c r="M60" s="8">
-        <v>23</v>
-      </c>
-      <c r="N60" s="35">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14">
-      <c r="C61" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="9">
-        <v>375</v>
-      </c>
-      <c r="E61" s="9">
-        <v>15</v>
-      </c>
-      <c r="F61" s="8">
-        <v>481.07</v>
-      </c>
-      <c r="G61" s="8">
-        <v>481.07</v>
-      </c>
-      <c r="H61" s="8">
-        <v>481.07</v>
-      </c>
-      <c r="I61" s="8">
-        <v>481.07</v>
-      </c>
-      <c r="J61" s="8">
-        <v>481.07</v>
-      </c>
-      <c r="K61" s="8">
-        <v>481.07</v>
-      </c>
-      <c r="L61" s="8">
-        <v>481.07</v>
-      </c>
-      <c r="M61" s="8">
-        <v>481.07</v>
-      </c>
-      <c r="N61" s="35">
-        <v>481.07</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14">
-      <c r="C62" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="11">
-        <v>60</v>
-      </c>
-      <c r="E62" s="11">
-        <v>10</v>
-      </c>
-      <c r="F62" s="11">
-        <v>52</v>
-      </c>
-      <c r="G62" s="8">
-        <v>52</v>
-      </c>
-      <c r="H62" s="8">
-        <v>52</v>
-      </c>
-      <c r="I62" s="8">
-        <v>52</v>
-      </c>
-      <c r="J62" s="8">
-        <v>52</v>
-      </c>
-      <c r="K62" s="8">
-        <v>52</v>
-      </c>
-      <c r="L62" s="8">
-        <v>52</v>
-      </c>
-      <c r="M62" s="8">
-        <v>52</v>
-      </c>
-      <c r="N62" s="35">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14">
-      <c r="C63" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="9">
-        <v>50</v>
-      </c>
-      <c r="E63" s="9">
-        <v>7</v>
-      </c>
-      <c r="F63" s="8">
-        <v>107</v>
-      </c>
-      <c r="G63" s="8">
-        <v>107</v>
-      </c>
-      <c r="H63" s="8">
-        <v>107</v>
-      </c>
-      <c r="I63" s="8">
-        <v>107</v>
-      </c>
-      <c r="J63" s="8">
-        <v>107</v>
-      </c>
-      <c r="K63" s="8">
-        <v>105</v>
-      </c>
-      <c r="L63" s="8">
-        <v>105</v>
-      </c>
-      <c r="M63" s="8">
-        <v>107</v>
-      </c>
-      <c r="N63" s="35">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="3:14">
-      <c r="C64" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="12">
-        <v>10000</v>
-      </c>
-      <c r="E64" s="11">
-        <v>23</v>
-      </c>
-      <c r="F64" s="11">
-        <v>9776</v>
-      </c>
-      <c r="G64" s="8">
-        <v>9767</v>
-      </c>
-      <c r="H64" s="8">
-        <v>9767</v>
-      </c>
-      <c r="I64" s="8">
-        <v>9767</v>
-      </c>
-      <c r="J64" s="8">
-        <v>9767</v>
-      </c>
-      <c r="K64" s="8">
-        <v>9767</v>
-      </c>
-      <c r="L64" s="8">
-        <v>9767</v>
-      </c>
-      <c r="M64" s="8">
-        <v>9767</v>
-      </c>
-      <c r="N64" s="35">
-        <v>9767</v>
-      </c>
-    </row>
-    <row r="65" spans="3:14">
-      <c r="C65" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="9">
-        <v>80</v>
-      </c>
-      <c r="E65" s="9">
-        <v>5</v>
-      </c>
-      <c r="F65" s="8">
-        <v>130</v>
-      </c>
-      <c r="G65" s="8">
-        <v>130</v>
-      </c>
-      <c r="H65" s="8">
-        <v>130</v>
-      </c>
-      <c r="I65" s="8">
-        <v>130</v>
-      </c>
-      <c r="J65" s="8">
-        <v>130</v>
-      </c>
-      <c r="K65" s="8">
-        <v>130</v>
-      </c>
-      <c r="L65" s="8">
-        <v>130</v>
-      </c>
-      <c r="M65" s="8">
-        <v>130</v>
-      </c>
-      <c r="N65" s="35">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="3:14">
-      <c r="C66" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="9">
-        <v>879</v>
-      </c>
-      <c r="E66" s="9">
-        <v>20</v>
-      </c>
-      <c r="F66" s="8">
-        <v>1025</v>
-      </c>
-      <c r="G66" s="8">
-        <v>1025</v>
-      </c>
-      <c r="H66" s="8">
-        <v>1025</v>
-      </c>
-      <c r="I66" s="8">
-        <v>1025</v>
-      </c>
-      <c r="J66" s="8">
-        <v>1025</v>
-      </c>
-      <c r="K66" s="8">
-        <v>1025</v>
-      </c>
-      <c r="L66" s="8">
-        <v>1025</v>
-      </c>
-      <c r="M66" s="8">
-        <v>1025</v>
-      </c>
-      <c r="N66" s="35">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="67" spans="3:14">
-      <c r="C67" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="9">
-        <v>577</v>
-      </c>
-      <c r="E67" s="9">
-        <v>30</v>
-      </c>
-      <c r="F67" s="8">
-        <v>1437</v>
-      </c>
-      <c r="G67" s="8">
-        <v>1437</v>
-      </c>
-      <c r="H67" s="8">
-        <v>1437</v>
-      </c>
-      <c r="I67" s="8">
-        <v>1437</v>
-      </c>
-      <c r="J67" s="8">
-        <v>1437</v>
-      </c>
-      <c r="K67" s="8">
-        <v>1437</v>
-      </c>
-      <c r="L67" s="8">
-        <v>1437</v>
-      </c>
-      <c r="M67" s="8">
-        <v>1437</v>
-      </c>
-      <c r="N67" s="35">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="68" spans="3:14">
-      <c r="C68" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="9">
-        <v>655</v>
-      </c>
-      <c r="E68" s="9">
-        <v>35</v>
-      </c>
-      <c r="F68" s="8">
-        <v>1689</v>
-      </c>
-      <c r="G68" s="8">
-        <v>1689</v>
-      </c>
-      <c r="H68" s="8">
-        <v>1689</v>
-      </c>
-      <c r="I68" s="8">
-        <v>1689</v>
-      </c>
-      <c r="J68" s="8">
-        <v>1689</v>
-      </c>
-      <c r="K68" s="8">
-        <v>1689</v>
-      </c>
-      <c r="L68" s="8">
-        <v>1689</v>
-      </c>
-      <c r="M68" s="8">
-        <v>1689</v>
-      </c>
-      <c r="N68" s="35">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="69" spans="3:14">
-      <c r="C69" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="9">
-        <v>819</v>
-      </c>
-      <c r="E69" s="9">
+      <c r="I86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M86" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F69" s="8">
-        <v>1821</v>
-      </c>
-      <c r="G69" s="8">
-        <v>1817</v>
-      </c>
-      <c r="H69" s="8">
-        <v>1817</v>
-      </c>
-      <c r="I69" s="8">
-        <v>1817</v>
-      </c>
-      <c r="J69" s="8">
-        <v>1817</v>
-      </c>
-      <c r="K69" s="8">
-        <v>1817</v>
-      </c>
-      <c r="L69" s="8">
-        <v>1817</v>
-      </c>
-      <c r="M69" s="8">
-        <v>1817</v>
-      </c>
-      <c r="N69" s="35">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="70" spans="3:14">
-      <c r="C70" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="9">
-        <v>907</v>
-      </c>
-      <c r="E70" s="9">
-        <v>45</v>
-      </c>
-      <c r="F70" s="8">
-        <v>2033</v>
-      </c>
-      <c r="G70" s="8">
-        <v>2033</v>
-      </c>
-      <c r="H70" s="8">
-        <v>2033</v>
-      </c>
-      <c r="I70" s="8">
-        <v>2033</v>
-      </c>
-      <c r="J70" s="8">
-        <v>2033</v>
-      </c>
-      <c r="K70" s="8">
-        <v>2033</v>
-      </c>
-      <c r="L70" s="8">
-        <v>2033</v>
-      </c>
-      <c r="M70" s="8">
-        <v>2033</v>
-      </c>
-      <c r="N70" s="35">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="71" spans="3:14">
-      <c r="C71" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="9">
-        <v>882</v>
-      </c>
-      <c r="E71" s="9">
-        <v>50</v>
-      </c>
-      <c r="F71" s="8">
-        <v>2440</v>
-      </c>
-      <c r="G71" s="8">
-        <v>2444</v>
-      </c>
-      <c r="H71" s="8">
-        <v>2444</v>
-      </c>
-      <c r="I71" s="8">
-        <v>2438</v>
-      </c>
-      <c r="J71" s="8">
-        <v>2440</v>
-      </c>
-      <c r="K71" s="8">
-        <v>2444</v>
-      </c>
-      <c r="L71" s="8">
-        <v>2444</v>
-      </c>
-      <c r="M71" s="8">
-        <v>2444</v>
-      </c>
-      <c r="N71" s="35">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="72" spans="3:14">
-      <c r="C72" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="9">
-        <v>1050</v>
-      </c>
-      <c r="E72" s="9">
-        <v>55</v>
-      </c>
-      <c r="F72" s="8">
-        <v>2651</v>
-      </c>
-      <c r="G72" s="8">
-        <v>2651</v>
-      </c>
-      <c r="H72" s="8">
-        <v>2651</v>
-      </c>
-      <c r="I72" s="8">
-        <v>2651</v>
-      </c>
-      <c r="J72" s="8">
-        <v>2651</v>
-      </c>
-      <c r="K72" s="8">
-        <v>2651</v>
-      </c>
-      <c r="L72" s="8">
-        <v>2651</v>
-      </c>
-      <c r="M72" s="8">
-        <v>2651</v>
-      </c>
-      <c r="N72" s="35">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="73" spans="3:14">
-      <c r="C73" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="9">
-        <v>1006</v>
-      </c>
-      <c r="E73" s="9">
-        <v>60</v>
-      </c>
-      <c r="F73" s="8">
-        <v>2917</v>
-      </c>
-      <c r="G73" s="8">
-        <v>2917</v>
-      </c>
-      <c r="H73" s="8">
-        <v>2917</v>
-      </c>
-      <c r="I73" s="8">
-        <v>2917</v>
-      </c>
-      <c r="J73" s="8">
-        <v>2917</v>
-      </c>
-      <c r="K73" s="8">
-        <v>2917</v>
-      </c>
-      <c r="L73" s="8">
-        <v>2917</v>
-      </c>
-      <c r="M73" s="8">
-        <v>2917</v>
-      </c>
-      <c r="N73" s="35">
-        <v>2917</v>
-      </c>
-    </row>
-    <row r="74" spans="3:14">
-      <c r="C74" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D74" s="9">
-        <v>1319</v>
-      </c>
-      <c r="E74" s="9">
-        <v>65</v>
-      </c>
-      <c r="F74" s="8">
-        <v>2817</v>
-      </c>
-      <c r="G74" s="8">
-        <v>2817</v>
-      </c>
-      <c r="H74" s="8">
-        <v>2817</v>
-      </c>
-      <c r="I74" s="8">
-        <v>2817</v>
-      </c>
-      <c r="J74" s="8">
-        <v>2817</v>
-      </c>
-      <c r="K74" s="8">
-        <v>2817</v>
-      </c>
-      <c r="L74" s="8">
-        <v>2817</v>
-      </c>
-      <c r="M74" s="8">
-        <v>2817</v>
-      </c>
-      <c r="N74" s="35">
-        <v>2817</v>
-      </c>
-    </row>
-    <row r="75" spans="3:14">
-      <c r="C75" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" s="9">
-        <v>1426</v>
-      </c>
-      <c r="E75" s="9">
-        <v>70</v>
-      </c>
-      <c r="F75" s="8">
-        <v>3223</v>
-      </c>
-      <c r="G75" s="8">
-        <v>3223</v>
-      </c>
-      <c r="H75" s="8">
-        <v>3223</v>
-      </c>
-      <c r="I75" s="8">
-        <v>3223</v>
-      </c>
-      <c r="J75" s="8">
-        <v>3223</v>
-      </c>
-      <c r="K75" s="8">
-        <v>3223</v>
-      </c>
-      <c r="L75" s="8">
-        <v>3223</v>
-      </c>
-      <c r="M75" s="8">
-        <v>3223</v>
-      </c>
-      <c r="N75" s="35">
-        <v>3223</v>
-      </c>
-    </row>
-    <row r="76" spans="3:14" ht="15" thickBot="1">
-      <c r="C76" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" s="26">
-        <v>1433</v>
-      </c>
-      <c r="E76" s="26">
-        <v>75</v>
-      </c>
-      <c r="F76" s="27">
-        <v>3614</v>
-      </c>
-      <c r="G76" s="27">
-        <v>3614</v>
-      </c>
-      <c r="H76" s="27">
-        <v>3614</v>
-      </c>
-      <c r="I76" s="27">
-        <v>3614</v>
-      </c>
-      <c r="J76" s="27">
-        <v>3614</v>
-      </c>
-      <c r="K76" s="27">
-        <v>3614</v>
-      </c>
-      <c r="L76" s="27">
-        <v>3614</v>
-      </c>
-      <c r="M76" s="27">
-        <v>3614</v>
-      </c>
-      <c r="N76" s="36">
-        <v>3614</v>
-      </c>
-    </row>
-    <row r="77" spans="3:14" ht="15" thickTop="1"/>
-    <row r="85" spans="5:14" ht="22">
-      <c r="E85" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M85" s="1" t="s">
+      <c r="N86" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="5:14" ht="22">
-      <c r="E86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="2">
-        <v>295</v>
-      </c>
-      <c r="G86" s="1">
-        <v>295</v>
-      </c>
-      <c r="H86" s="1">
-        <v>295</v>
-      </c>
-      <c r="I86" s="1">
-        <v>295</v>
-      </c>
-      <c r="J86" s="1">
-        <v>295</v>
-      </c>
-      <c r="K86" s="1">
-        <v>295</v>
-      </c>
-      <c r="L86" s="1">
-        <v>295</v>
-      </c>
-      <c r="M86" s="1">
-        <v>295</v>
-      </c>
-      <c r="N86" s="1">
-        <v>295</v>
       </c>
     </row>
     <row r="87" spans="5:14" ht="22">
       <c r="E87" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F87" s="2">
-        <v>1024</v>
+        <v>295</v>
       </c>
       <c r="G87" s="1">
-        <v>1024</v>
+        <v>295</v>
       </c>
       <c r="H87" s="1">
-        <v>1024</v>
+        <v>295</v>
       </c>
       <c r="I87" s="1">
-        <v>1024</v>
+        <v>295</v>
       </c>
       <c r="J87" s="1">
-        <v>1024</v>
+        <v>295</v>
       </c>
       <c r="K87" s="1">
-        <v>1024</v>
-      </c>
-      <c r="L87" s="2">
-        <v>1018</v>
+        <v>295</v>
+      </c>
+      <c r="L87" s="1">
+        <v>295</v>
       </c>
       <c r="M87" s="1">
-        <v>1024</v>
+        <v>295</v>
       </c>
       <c r="N87" s="1">
-        <v>1024</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="5:14" ht="22">
       <c r="E88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F88" s="2">
-        <v>35</v>
+        <v>1024</v>
       </c>
       <c r="G88" s="1">
-        <v>35</v>
+        <v>1024</v>
       </c>
       <c r="H88" s="1">
-        <v>35</v>
+        <v>1024</v>
       </c>
       <c r="I88" s="1">
-        <v>35</v>
+        <v>1024</v>
       </c>
       <c r="J88" s="1">
-        <v>35</v>
+        <v>1024</v>
       </c>
       <c r="K88" s="1">
-        <v>35</v>
-      </c>
-      <c r="L88" s="1">
-        <v>35</v>
+        <v>1024</v>
+      </c>
+      <c r="L88" s="2">
+        <v>1018</v>
       </c>
       <c r="M88" s="1">
-        <v>35</v>
+        <v>1024</v>
       </c>
       <c r="N88" s="1">
-        <v>35</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="89" spans="5:14" ht="22">
       <c r="E89" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F89" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G89" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H89" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I89" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J89" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K89" s="1">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L89" s="1">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M89" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N89" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="5:14" ht="22">
       <c r="E90" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F90" s="2">
-        <v>481.07</v>
+        <v>23</v>
       </c>
       <c r="G90" s="1">
-        <v>481.07</v>
+        <v>23</v>
       </c>
       <c r="H90" s="1">
-        <v>481.07</v>
+        <v>23</v>
       </c>
       <c r="I90" s="1">
-        <v>481.07</v>
+        <v>23</v>
       </c>
       <c r="J90" s="1">
-        <v>481.07</v>
+        <v>23</v>
       </c>
       <c r="K90" s="1">
-        <v>481.07</v>
+        <v>22</v>
       </c>
       <c r="L90" s="1">
-        <v>481.07</v>
+        <v>22</v>
       </c>
       <c r="M90" s="1">
-        <v>481.07</v>
+        <v>23</v>
       </c>
       <c r="N90" s="1">
-        <v>481.07</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="5:14" ht="22">
       <c r="E91" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F91" s="2">
-        <v>52</v>
+        <v>481.07</v>
       </c>
       <c r="G91" s="1">
-        <v>52</v>
+        <v>481.07</v>
       </c>
       <c r="H91" s="1">
-        <v>52</v>
+        <v>481.07</v>
       </c>
       <c r="I91" s="1">
-        <v>52</v>
+        <v>481.07</v>
       </c>
       <c r="J91" s="1">
-        <v>52</v>
+        <v>481.07</v>
       </c>
       <c r="K91" s="1">
-        <v>52</v>
+        <v>481.07</v>
       </c>
       <c r="L91" s="1">
-        <v>52</v>
+        <v>481.07</v>
       </c>
       <c r="M91" s="1">
-        <v>52</v>
+        <v>481.07</v>
       </c>
       <c r="N91" s="1">
-        <v>52</v>
+        <v>481.07</v>
       </c>
     </row>
     <row r="92" spans="5:14" ht="22">
       <c r="E92" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F92" s="2">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="G92" s="1">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="H92" s="1">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="I92" s="1">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="J92" s="1">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="K92" s="1">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="L92" s="1">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="M92" s="1">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="N92" s="1">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="5:14" ht="22">
       <c r="E93" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F93" s="2">
-        <v>9767</v>
+        <v>107</v>
       </c>
       <c r="G93" s="1">
-        <v>9767</v>
+        <v>107</v>
       </c>
       <c r="H93" s="1">
-        <v>9767</v>
+        <v>107</v>
       </c>
       <c r="I93" s="1">
-        <v>9767</v>
+        <v>107</v>
       </c>
       <c r="J93" s="1">
-        <v>9767</v>
+        <v>107</v>
       </c>
       <c r="K93" s="1">
-        <v>9767</v>
+        <v>105</v>
       </c>
       <c r="L93" s="1">
-        <v>9767</v>
+        <v>105</v>
       </c>
       <c r="M93" s="1">
-        <v>9767</v>
+        <v>107</v>
       </c>
       <c r="N93" s="1">
-        <v>9767</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="5:14" ht="22">
       <c r="E94" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F94" s="2">
-        <v>130</v>
+        <v>9767</v>
       </c>
       <c r="G94" s="1">
-        <v>130</v>
+        <v>9767</v>
       </c>
       <c r="H94" s="1">
-        <v>130</v>
+        <v>9767</v>
       </c>
       <c r="I94" s="1">
-        <v>130</v>
+        <v>9767</v>
       </c>
       <c r="J94" s="1">
-        <v>130</v>
+        <v>9767</v>
       </c>
       <c r="K94" s="1">
-        <v>130</v>
+        <v>9767</v>
       </c>
       <c r="L94" s="1">
-        <v>130</v>
+        <v>9767</v>
       </c>
       <c r="M94" s="1">
-        <v>130</v>
+        <v>9767</v>
       </c>
       <c r="N94" s="1">
-        <v>130</v>
+        <v>9767</v>
       </c>
     </row>
     <row r="95" spans="5:14" ht="22">
       <c r="E95" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F95" s="2">
-        <v>1025</v>
+        <v>130</v>
       </c>
       <c r="G95" s="1">
-        <v>1025</v>
+        <v>130</v>
       </c>
       <c r="H95" s="1">
-        <v>1025</v>
+        <v>130</v>
       </c>
       <c r="I95" s="1">
-        <v>1025</v>
+        <v>130</v>
       </c>
       <c r="J95" s="1">
-        <v>1025</v>
+        <v>130</v>
       </c>
       <c r="K95" s="1">
-        <v>1025</v>
+        <v>130</v>
       </c>
       <c r="L95" s="1">
-        <v>1025</v>
+        <v>130</v>
       </c>
       <c r="M95" s="1">
-        <v>1025</v>
+        <v>130</v>
       </c>
       <c r="N95" s="1">
-        <v>1025</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="5:14" ht="22">
       <c r="E96" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F96" s="2">
-        <v>1437</v>
+        <v>1025</v>
       </c>
       <c r="G96" s="1">
-        <v>1437</v>
+        <v>1025</v>
       </c>
       <c r="H96" s="1">
-        <v>1437</v>
+        <v>1025</v>
       </c>
       <c r="I96" s="1">
-        <v>1437</v>
+        <v>1025</v>
       </c>
       <c r="J96" s="1">
-        <v>1437</v>
+        <v>1025</v>
       </c>
       <c r="K96" s="1">
-        <v>1437</v>
+        <v>1025</v>
       </c>
       <c r="L96" s="1">
-        <v>1437</v>
+        <v>1025</v>
       </c>
       <c r="M96" s="1">
-        <v>1437</v>
+        <v>1025</v>
       </c>
       <c r="N96" s="1">
-        <v>1437</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="97" spans="5:14" ht="22">
       <c r="E97" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F97" s="2">
-        <v>1689</v>
+        <v>1437</v>
       </c>
       <c r="G97" s="1">
-        <v>1689</v>
+        <v>1437</v>
       </c>
       <c r="H97" s="1">
-        <v>1689</v>
+        <v>1437</v>
       </c>
       <c r="I97" s="1">
-        <v>1689</v>
+        <v>1437</v>
       </c>
       <c r="J97" s="1">
-        <v>1689</v>
+        <v>1437</v>
       </c>
       <c r="K97" s="1">
-        <v>1689</v>
+        <v>1437</v>
       </c>
       <c r="L97" s="1">
-        <v>1689</v>
+        <v>1437</v>
       </c>
       <c r="M97" s="1">
-        <v>1689</v>
+        <v>1437</v>
       </c>
       <c r="N97" s="1">
-        <v>1689</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="98" spans="5:14" ht="22">
       <c r="E98" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F98" s="2">
-        <v>1821</v>
+        <v>1689</v>
       </c>
       <c r="G98" s="1">
-        <v>1817</v>
+        <v>1689</v>
       </c>
       <c r="H98" s="1">
-        <v>1817</v>
+        <v>1689</v>
       </c>
       <c r="I98" s="1">
-        <v>1817</v>
+        <v>1689</v>
       </c>
       <c r="J98" s="1">
-        <v>1817</v>
+        <v>1689</v>
       </c>
       <c r="K98" s="1">
-        <v>1817</v>
+        <v>1689</v>
       </c>
       <c r="L98" s="1">
-        <v>1817</v>
+        <v>1689</v>
       </c>
       <c r="M98" s="1">
-        <v>1817</v>
+        <v>1689</v>
       </c>
       <c r="N98" s="1">
-        <v>1817</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="99" spans="5:14" ht="22">
       <c r="E99" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F99" s="2">
-        <v>2033</v>
+        <v>1821</v>
       </c>
       <c r="G99" s="1">
-        <v>2033</v>
+        <v>1817</v>
       </c>
       <c r="H99" s="1">
-        <v>2033</v>
+        <v>1817</v>
       </c>
       <c r="I99" s="1">
-        <v>2033</v>
+        <v>1817</v>
       </c>
       <c r="J99" s="1">
-        <v>2033</v>
+        <v>1817</v>
       </c>
       <c r="K99" s="1">
-        <v>2033</v>
+        <v>1817</v>
       </c>
       <c r="L99" s="1">
-        <v>2033</v>
+        <v>1817</v>
       </c>
       <c r="M99" s="1">
-        <v>2033</v>
+        <v>1817</v>
       </c>
       <c r="N99" s="1">
-        <v>2033</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="100" spans="5:14" ht="22">
       <c r="E100" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F100" s="2">
-        <v>2440</v>
+        <v>2033</v>
       </c>
       <c r="G100" s="1">
-        <v>2444</v>
+        <v>2033</v>
       </c>
       <c r="H100" s="1">
-        <v>2444</v>
-      </c>
-      <c r="I100" s="2">
-        <v>2438</v>
-      </c>
-      <c r="J100" s="2">
-        <v>2440</v>
+        <v>2033</v>
+      </c>
+      <c r="I100" s="1">
+        <v>2033</v>
+      </c>
+      <c r="J100" s="1">
+        <v>2033</v>
       </c>
       <c r="K100" s="1">
-        <v>2444</v>
+        <v>2033</v>
       </c>
       <c r="L100" s="1">
-        <v>2444</v>
+        <v>2033</v>
       </c>
       <c r="M100" s="1">
-        <v>2444</v>
-      </c>
-      <c r="N100" s="2">
-        <v>2351</v>
+        <v>2033</v>
+      </c>
+      <c r="N100" s="1">
+        <v>2033</v>
       </c>
     </row>
     <row r="101" spans="5:14" ht="22">
       <c r="E101" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F101" s="2">
-        <v>2651</v>
+        <v>2440</v>
       </c>
       <c r="G101" s="1">
-        <v>2651</v>
+        <v>2444</v>
       </c>
       <c r="H101" s="1">
-        <v>2651</v>
-      </c>
-      <c r="I101" s="1">
-        <v>2651</v>
-      </c>
-      <c r="J101" s="1">
-        <v>2651</v>
+        <v>2444</v>
+      </c>
+      <c r="I101" s="2">
+        <v>2438</v>
+      </c>
+      <c r="J101" s="2">
+        <v>2440</v>
       </c>
       <c r="K101" s="1">
-        <v>2651</v>
+        <v>2444</v>
       </c>
       <c r="L101" s="1">
-        <v>2651</v>
+        <v>2444</v>
       </c>
       <c r="M101" s="1">
-        <v>2651</v>
-      </c>
-      <c r="N101" s="1">
-        <v>2651</v>
+        <v>2444</v>
+      </c>
+      <c r="N101" s="2">
+        <v>2351</v>
       </c>
     </row>
     <row r="102" spans="5:14" ht="22">
       <c r="E102" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F102" s="2">
-        <v>2917</v>
+        <v>2651</v>
       </c>
       <c r="G102" s="1">
-        <v>2917</v>
+        <v>2651</v>
       </c>
       <c r="H102" s="1">
-        <v>2917</v>
+        <v>2651</v>
       </c>
       <c r="I102" s="1">
-        <v>2917</v>
+        <v>2651</v>
       </c>
       <c r="J102" s="1">
-        <v>2917</v>
+        <v>2651</v>
       </c>
       <c r="K102" s="1">
-        <v>2917</v>
+        <v>2651</v>
       </c>
       <c r="L102" s="1">
-        <v>2917</v>
+        <v>2651</v>
       </c>
       <c r="M102" s="1">
-        <v>2917</v>
+        <v>2651</v>
       </c>
       <c r="N102" s="1">
-        <v>2917</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="103" spans="5:14" ht="22">
       <c r="E103" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F103" s="2">
-        <v>2817</v>
+        <v>2917</v>
       </c>
       <c r="G103" s="1">
-        <v>2817</v>
+        <v>2917</v>
       </c>
       <c r="H103" s="1">
-        <v>2817</v>
+        <v>2917</v>
       </c>
       <c r="I103" s="1">
-        <v>2817</v>
+        <v>2917</v>
       </c>
       <c r="J103" s="1">
-        <v>2817</v>
+        <v>2917</v>
       </c>
       <c r="K103" s="1">
-        <v>2817</v>
+        <v>2917</v>
       </c>
       <c r="L103" s="1">
-        <v>2817</v>
+        <v>2917</v>
       </c>
       <c r="M103" s="1">
-        <v>2817</v>
+        <v>2917</v>
       </c>
       <c r="N103" s="1">
-        <v>2817</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="104" spans="5:14" ht="22">
       <c r="E104" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F104" s="2">
-        <v>3223</v>
+        <v>2817</v>
       </c>
       <c r="G104" s="1">
-        <v>3223</v>
+        <v>2817</v>
       </c>
       <c r="H104" s="1">
-        <v>3223</v>
+        <v>2817</v>
       </c>
       <c r="I104" s="1">
-        <v>3223</v>
+        <v>2817</v>
       </c>
       <c r="J104" s="1">
-        <v>3223</v>
+        <v>2817</v>
       </c>
       <c r="K104" s="1">
-        <v>3223</v>
+        <v>2817</v>
       </c>
       <c r="L104" s="1">
-        <v>3223</v>
+        <v>2817</v>
       </c>
       <c r="M104" s="1">
-        <v>3223</v>
+        <v>2817</v>
       </c>
       <c r="N104" s="1">
-        <v>3223</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="105" spans="5:14" ht="22">
       <c r="E105" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105" s="2">
+        <v>3223</v>
+      </c>
+      <c r="G105" s="1">
+        <v>3223</v>
+      </c>
+      <c r="H105" s="1">
+        <v>3223</v>
+      </c>
+      <c r="I105" s="1">
+        <v>3223</v>
+      </c>
+      <c r="J105" s="1">
+        <v>3223</v>
+      </c>
+      <c r="K105" s="1">
+        <v>3223</v>
+      </c>
+      <c r="L105" s="1">
+        <v>3223</v>
+      </c>
+      <c r="M105" s="1">
+        <v>3223</v>
+      </c>
+      <c r="N105" s="1">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="106" spans="5:14" ht="22">
+      <c r="E106" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F106" s="2">
         <v>3614</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G106" s="1">
         <v>3614</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H106" s="1">
         <v>3614</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I106" s="1">
         <v>3614</v>
       </c>
-      <c r="J105" s="1">
+      <c r="J106" s="1">
         <v>3614</v>
       </c>
-      <c r="K105" s="1">
+      <c r="K106" s="1">
         <v>3614</v>
       </c>
-      <c r="L105" s="1">
+      <c r="L106" s="1">
         <v>3614</v>
       </c>
-      <c r="M105" s="1">
+      <c r="M106" s="1">
         <v>3614</v>
       </c>
-      <c r="N105" s="1">
+      <c r="N106" s="1">
         <v>3614</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="G30:N30"/>
-    <mergeCell ref="G55:N55"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="G31:N31"/>
+    <mergeCell ref="G56:N56"/>
+    <mergeCell ref="G3:N3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G70:N70">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>1639</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G71:N71">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+      <formula>1830</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
+      <formula>"2033*0.9"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73:N73">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>1386</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+      <formula>"2651*0.9"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:N17">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>1639</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:L18 N18">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>1830</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>"2033*0.9"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:N20">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>1386</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>"2651*0.9"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08C028F-982D-4042-BE89-FE5BE3668122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127A7696-9104-2044-BD4E-B65A428FF32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="500" windowWidth="42580" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29380" yWindow="500" windowWidth="31520" windowHeight="26860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="function" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
     <t>V1</t>
   </si>
@@ -168,6 +169,156 @@
   </si>
   <si>
     <t>20 次迭代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Название</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_fitness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Вход</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Выход</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr_binary (np.ndarray): Массив после бинаризации (группы частиц)</t>
+  </si>
+  <si>
+    <t>arr_price (np.ndarray): Массив ценностей</t>
+  </si>
+  <si>
+    <t>knapsack_capacity (int): Объем рюкзака</t>
+  </si>
+  <si>
+    <t>arr_price (np.ndarray): Массив ценностей</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int: Приспособленность</t>
+  </si>
+  <si>
+    <t>repari_alg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knapsack_capacity (int): Объем рюкзака</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr_weight (np.ndarray): Массив весов</t>
+  </si>
+  <si>
+    <t>arr_weight (np.ndarray): Массив весов</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Алгоритм улучшения (IA, Improvement Algorithm), который служит для улучшения выполнимого решения, возвращаемого RA (алгоритмом исправления).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>improvement_alg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr_binary (np.ndarray): Массив после бинаризации (одномерные)</t>
+  </si>
+  <si>
+    <t>np.ndarray: Новый массив после улучшения алгоритма IM (одномерные массивы)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf: Передаточная функция</t>
+  </si>
+  <si>
+    <t>arr_price:  Массив ценностей</t>
+  </si>
+  <si>
+    <t>arr_weight: Массив весов</t>
+  </si>
+  <si>
+    <t>knapsack_capacity: Объем рюкзака</t>
+  </si>
+  <si>
+    <t>num_groups_particle: Количество роев частиц</t>
+  </si>
+  <si>
+    <t>max_iters: Максимальное количество итераций</t>
+  </si>
+  <si>
+    <t>a_1: Способность к исследованию</t>
+  </si>
+  <si>
+    <t>a_2: Способность к эксплуатации</t>
+  </si>
+  <si>
+    <t>GP: Коэффициент генерации</t>
+  </si>
+  <si>
+    <t>BiEO</t>
+  </si>
+  <si>
+    <t>Алгоритм оптимизации бинарного равновесия</t>
+  </si>
+  <si>
+    <t>transfer_function</t>
+  </si>
+  <si>
+    <t>8 передаточных функций (4 V-Shapes и 4 S-Shapes), которые отображают значения на интервал [0, 1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer_function_type (Transfer Function): Тип передаточной функции</t>
+  </si>
+  <si>
+    <t>a (float): Произвольные реальные значения</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Функция приспособленности  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fitness functio), получает приспособленность, который представляет собой общую ценность предметов, помещенных в рюкзак. Если общая объем больше, чем объем рюкзака, вызовите функцию штрафа, чтобы установить приспособленность на отрицательное число.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Описание</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Алгоритм исправления  (RA, Repair Algorithm), который служит для исправления невыполнимых решений, возвращаемых алгоритмом PF (штрафная функция). и "вернуть" восстановленный новый массив</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float: Значения, отображаемые на интервал [0, 1] передаточной функцией</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.ndarray: Новый массив после восстановления алгоритма RA (одномерный массив)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.ndarray: Получен конечный результат равновесный бассейн и кандидаты (Equilibrium pool and candidates)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +410,23 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -279,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -496,6 +664,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -503,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -602,6 +882,84 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2082,7 +2440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="215" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="215" workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
@@ -5058,4 +5416,276 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E42B99-AD92-4141-9772-3F8047708775}">
+  <dimension ref="B2:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="136" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="38" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" style="35"/>
+    <col min="2" max="2" width="17.5" style="37" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="25.83203125" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="38" customHeight="1" thickBot="1"/>
+    <row r="3" spans="2:5" ht="38" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="38" customHeight="1" thickTop="1">
+      <c r="B4" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="38" customHeight="1">
+      <c r="B5" s="38"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="57"/>
+    </row>
+    <row r="6" spans="2:5" ht="38" customHeight="1">
+      <c r="B6" s="38"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="57"/>
+    </row>
+    <row r="7" spans="2:5" ht="38" customHeight="1" thickBot="1">
+      <c r="B7" s="43"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="58"/>
+    </row>
+    <row r="8" spans="2:5" ht="38" customHeight="1" thickTop="1">
+      <c r="B8" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="38" customHeight="1">
+      <c r="B9" s="38"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="2:5" ht="38" customHeight="1">
+      <c r="B10" s="38"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="2:5" ht="38" customHeight="1" thickBot="1">
+      <c r="B11" s="45"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="60"/>
+    </row>
+    <row r="12" spans="2:5" ht="38" customHeight="1" thickTop="1">
+      <c r="B12" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="38" customHeight="1">
+      <c r="B13" s="38"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="57"/>
+    </row>
+    <row r="14" spans="2:5" ht="38" customHeight="1">
+      <c r="B14" s="38"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="57"/>
+    </row>
+    <row r="15" spans="2:5" ht="38" customHeight="1" thickBot="1">
+      <c r="B15" s="43"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="58"/>
+    </row>
+    <row r="16" spans="2:5" ht="38" customHeight="1" thickTop="1">
+      <c r="B16" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="38" customHeight="1" thickBot="1">
+      <c r="B17" s="45"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="60"/>
+    </row>
+    <row r="18" spans="2:5" ht="38" customHeight="1" thickTop="1">
+      <c r="B18" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="38" customHeight="1">
+      <c r="B19" s="38"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="57"/>
+    </row>
+    <row r="20" spans="2:5" ht="38" customHeight="1">
+      <c r="B20" s="38"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="57"/>
+    </row>
+    <row r="21" spans="2:5" ht="38" customHeight="1">
+      <c r="B21" s="38"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="57"/>
+    </row>
+    <row r="22" spans="2:5" ht="38" customHeight="1">
+      <c r="B22" s="38"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="57"/>
+    </row>
+    <row r="23" spans="2:5" ht="38" customHeight="1">
+      <c r="B23" s="38"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="57"/>
+    </row>
+    <row r="24" spans="2:5" ht="38" customHeight="1">
+      <c r="B24" s="38"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="57"/>
+    </row>
+    <row r="25" spans="2:5" ht="38" customHeight="1">
+      <c r="B25" s="38"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="57"/>
+    </row>
+    <row r="26" spans="2:5" ht="38" customHeight="1" thickBot="1">
+      <c r="B26" s="45"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="60"/>
+    </row>
+    <row r="27" spans="2:5" ht="38" customHeight="1" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="C18:C26"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E26"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127A7696-9104-2044-BD4E-B65A428FF32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35708727-FA3A-604B-9529-6E7F4BD68F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29380" yWindow="500" windowWidth="31520" windowHeight="26860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29380" yWindow="500" windowWidth="31520" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
   <si>
     <t>V1</t>
   </si>
@@ -135,33 +135,6 @@
   <si>
     <t>Transform function</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instance</t>
-  </si>
-  <si>
-    <t>BEOS1</t>
-  </si>
-  <si>
-    <t>BEOS2</t>
-  </si>
-  <si>
-    <t>BEOS3</t>
-  </si>
-  <si>
-    <t>BEOS4</t>
-  </si>
-  <si>
-    <t>BEOV1</t>
-  </si>
-  <si>
-    <t>BEOV2</t>
-  </si>
-  <si>
-    <t>BEOV3</t>
-  </si>
-  <si>
-    <t>BEOV4</t>
   </si>
   <si>
     <t>V4</t>
@@ -321,12 +294,44 @@
     <t>np.ndarray: Получен конечный результат равновесный бассейн и кандидаты (Equilibrium pool and candidates)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Parameters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum iterations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of particles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of runs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,17 +353,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF333333"/>
-      <name val="JetBrains Mono"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF333333"/>
-      <name val="JetBrains Mono"/>
     </font>
     <font>
       <sz val="11"/>
@@ -783,183 +777,217 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2438,2936 +2466,2335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:N106"/>
+  <dimension ref="C2:N100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="215" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="215" workbookViewId="0">
+      <selection activeCell="N77" sqref="C56:N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="3"/>
-    <col min="4" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="4" width="7.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="1" customWidth="1"/>
+    <col min="7" max="14" width="6.33203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:14" ht="15" thickBot="1"/>
     <row r="3" spans="3:14" ht="16" thickTop="1" thickBot="1">
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="34"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="3:14" ht="16" thickTop="1" thickBot="1">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="16" t="s">
-        <v>42</v>
+      <c r="N4" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="3:14" ht="15" thickTop="1">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>269</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>10</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>295</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>295</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>295</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>295</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>295</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>295</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="4">
         <v>295</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>295</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <v>295</v>
       </c>
     </row>
     <row r="6" spans="3:14">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>878</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="21">
         <v>976</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>976</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>976</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>976</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>976</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>976</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>976</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <v>976</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="10">
         <v>976</v>
       </c>
     </row>
     <row r="7" spans="3:14">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>20</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>4</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="22">
         <v>35</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>35</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>35</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>35</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>35</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <v>35</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="4">
         <v>35</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="4">
         <v>35</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="10">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="3:14">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>11</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>4</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="22">
         <v>23</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>23</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>23</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>23</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>23</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <v>23</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="4">
         <v>23</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="4">
         <v>23</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="3:14">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>375</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>15</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="22">
         <v>481.07</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>481</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>481</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>481</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>481</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="4">
         <v>481</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="4">
         <v>481</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="4">
         <v>481</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="10">
         <v>481</v>
       </c>
     </row>
     <row r="10" spans="3:14">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>60</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>10</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <v>52</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>52</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>52</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>52</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>52</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>52</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="4">
         <v>52</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="4">
         <v>52</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="10">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="3:14">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>50</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>7</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="22">
         <v>107</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>107</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>107</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>107</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>107</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <v>107</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="4">
         <v>107</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="4">
         <v>107</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="10">
         <v>107</v>
       </c>
     </row>
     <row r="12" spans="3:14">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <v>10000</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>23</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <v>9767</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>9767</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>9767</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <v>9767</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <v>9767</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="4">
         <v>9767</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="4">
         <v>9767</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="4">
         <v>9767</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="10">
         <v>9767</v>
       </c>
     </row>
     <row r="13" spans="3:14">
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>80</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>5</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="22">
         <v>130</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>130</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <v>130</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4">
         <v>130</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="4">
         <v>130</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <v>130</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="4">
         <v>130</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="4">
         <v>130</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="10">
         <v>130</v>
       </c>
     </row>
     <row r="14" spans="3:14">
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>879</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <v>20</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <v>1025</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>1025</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <v>1025</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <v>1025</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <v>1025</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="4">
         <v>1025</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="4">
         <v>1025</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="4">
         <v>1025</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="10">
         <v>1025</v>
       </c>
     </row>
     <row r="15" spans="3:14">
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <v>577</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>30</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="22">
         <v>1437</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="16">
         <v>1378</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="16">
         <v>1402</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="16">
         <v>1422</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <v>1437</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="4">
         <v>1437</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="4">
         <v>1437</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="4">
         <v>1437</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="10">
         <v>1437</v>
       </c>
     </row>
     <row r="16" spans="3:14">
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <v>655</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <v>35</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <v>1689</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="16">
         <v>1666</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="16">
         <v>1671</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="24">
         <v>1676</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="16">
         <v>1675</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="4">
         <v>1689</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="4">
         <v>1689</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="4">
         <v>1689</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="10">
         <v>1689</v>
       </c>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="16">
         <v>819</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="16">
         <v>40</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="22">
         <v>1821</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="16">
         <v>1686</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="16">
         <v>1645</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="16">
         <v>1774</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="16">
         <v>1751</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="16">
         <v>1806</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="16">
         <v>1816</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="16">
         <v>1810</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="18">
         <v>1809</v>
       </c>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="16">
         <v>907</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="16">
         <v>45</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="22">
         <v>2033</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="16">
         <v>1764</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="16">
         <v>1772</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="16">
         <v>1911</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="16">
         <v>1895</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="16">
         <v>2002</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="16">
         <v>1979</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="4">
         <v>2033</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="18">
         <v>1976</v>
       </c>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <v>882</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <v>50</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="22">
         <v>2444</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="4">
         <v>2444</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="4">
         <v>2444</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="24">
         <v>2438</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="24">
         <v>2440</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="4">
         <v>2444</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="4">
         <v>2444</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="4">
         <v>2444</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="25">
         <v>2351</v>
       </c>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="16">
         <v>1050</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <v>55</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="22">
         <v>2651</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="16">
         <v>2346</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="16">
         <v>2316</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="16">
         <v>2397</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="16">
         <v>2490</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="16">
         <v>2647</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="16">
         <v>2556</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="16">
         <v>2607</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="18">
         <v>2518</v>
       </c>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="16">
         <v>1006</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>60</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="22">
         <v>2917</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="16">
         <v>2361</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="16">
         <v>2355</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="24">
         <v>2493</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="16">
         <v>2698</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="24">
         <v>2844</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="24">
         <v>2831</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="24">
         <v>2830</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="25">
         <v>2820</v>
       </c>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>1319</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>65</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="21">
         <v>2817</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="24">
         <v>2249</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <v>2254</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="3">
         <v>2495</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="3">
         <v>2510</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="24">
         <v>2724</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="24">
         <v>2650</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="24">
         <v>2710</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N22" s="25">
         <v>2641</v>
       </c>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>1426</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>70</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="21">
         <v>3223</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>2784</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <v>2531</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <v>2646</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="24">
         <v>2724</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="24">
         <v>3127</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="24">
         <v>3031</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="24">
         <v>3064</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="25">
         <v>3015</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="15" thickBot="1">
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>1433</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="12">
         <v>75</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="23">
         <v>3614</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="12">
         <v>2769</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="12">
         <v>2751</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="12">
         <v>3076</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="12">
         <v>3073</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="26">
         <v>3466</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="26">
         <v>3392</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24" s="26">
         <v>3414</v>
       </c>
-      <c r="N24" s="29">
+      <c r="N24" s="27">
         <v>3378</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="15" thickTop="1"/>
     <row r="27" spans="3:14">
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="30" spans="3:14" ht="21" customHeight="1">
-      <c r="C30" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="C30" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
     </row>
     <row r="31" spans="3:14">
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
     </row>
     <row r="32" spans="3:14">
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N32" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="7:14">
-      <c r="G33" s="3">
+      <c r="G33" s="1">
         <v>295</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="1">
         <v>295</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="1">
         <v>295</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="1">
         <v>295</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="1">
         <v>295</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="1">
         <v>295</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="1">
         <v>295</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="1">
         <v>295</v>
       </c>
     </row>
     <row r="34" spans="7:14">
-      <c r="G34" s="3">
+      <c r="G34" s="1">
         <v>908</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="1">
         <v>868</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <v>951</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="1">
         <v>976</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="1">
         <v>976</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="1">
         <v>976</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="1">
         <v>976</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="1">
         <v>976</v>
       </c>
     </row>
     <row r="35" spans="7:14">
-      <c r="G35" s="3">
+      <c r="G35" s="1">
         <v>35</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="1">
         <v>35</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="1">
         <v>35</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="1">
         <v>35</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="1">
         <v>35</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="1">
         <v>35</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="1">
         <v>35</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="7:14">
-      <c r="G36" s="3">
+      <c r="G36" s="1">
         <v>23</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="1">
         <v>23</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="1">
         <v>23</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="1">
         <v>23</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="1">
         <v>23</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="1">
         <v>23</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="1">
         <v>23</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="7:14">
-      <c r="G37" s="3">
+      <c r="G37" s="1">
         <v>481</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="1">
         <v>481</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="1">
         <v>481</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="1">
         <v>481</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="1">
         <v>481</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="1">
         <v>481</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="1">
         <v>481</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="1">
         <v>481</v>
       </c>
     </row>
     <row r="38" spans="7:14">
-      <c r="G38" s="3">
+      <c r="G38" s="1">
         <v>52</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="1">
         <v>52</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="1">
         <v>52</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="1">
         <v>52</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="1">
         <v>52</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="1">
         <v>52</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="1">
         <v>52</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="1">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="7:14">
-      <c r="G39" s="3">
+      <c r="G39" s="1">
         <v>107</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="1">
         <v>107</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="1">
         <v>107</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="1">
         <v>107</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="1">
         <v>107</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="1">
         <v>107</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="1">
         <v>107</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39" s="1">
         <v>107</v>
       </c>
     </row>
     <row r="40" spans="7:14">
-      <c r="G40" s="3">
+      <c r="G40" s="1">
         <v>9763</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="1">
         <v>9759</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="1">
         <v>9766</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="1">
         <v>9767</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="1">
         <v>9767</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="1">
         <v>9765</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="1">
         <v>9765</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="1">
         <v>9765</v>
       </c>
     </row>
     <row r="41" spans="7:14">
-      <c r="G41" s="3">
+      <c r="G41" s="1">
         <v>130</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="1">
         <v>130</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="1">
         <v>130</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="1">
         <v>130</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="1">
         <v>130</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="1">
         <v>130</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="1">
         <v>130</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="1">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="7:14">
-      <c r="G42" s="3">
+      <c r="G42" s="1">
         <v>965</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="1">
         <v>965</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="1">
         <v>1019</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="1">
         <v>1025</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="1">
         <v>1025</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="1">
         <v>1025</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="1">
         <v>1025</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="1">
         <v>1025</v>
       </c>
     </row>
     <row r="43" spans="7:14">
-      <c r="G43" s="3">
+      <c r="G43" s="1">
         <v>1339</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="1">
         <v>1197</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="1">
         <v>1221</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="1">
         <v>1363</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="1">
         <v>1409</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="1">
         <v>1419</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="1">
         <v>1437</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="1">
         <v>1399</v>
       </c>
     </row>
     <row r="44" spans="7:14">
-      <c r="G44" s="3">
+      <c r="G44" s="1">
         <v>1380</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="1">
         <v>1364</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="1">
         <v>1537</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="1">
         <v>1596</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="1">
         <v>1671</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="1">
         <v>1671</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="1">
         <v>1676</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="1">
         <v>1658</v>
       </c>
     </row>
     <row r="45" spans="7:14">
-      <c r="G45" s="3">
+      <c r="G45" s="1">
         <v>1394</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="1">
         <v>1350</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="1">
         <v>1518</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="1">
         <v>1664</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="1">
         <v>1747</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="1">
         <v>1702</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="1">
         <v>1750</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="1">
         <v>1712</v>
       </c>
     </row>
     <row r="46" spans="7:14">
-      <c r="G46" s="3">
+      <c r="G46" s="1">
         <v>1437</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="1">
         <v>1504</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="1">
         <v>1542</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="1">
         <v>1664</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="1">
         <v>2033</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="1">
         <v>1822</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="1">
         <v>2033</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="1">
         <v>1849</v>
       </c>
     </row>
     <row r="47" spans="7:14">
-      <c r="G47" s="3">
+      <c r="G47" s="1">
         <v>1809</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="1">
         <v>1681</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="1">
         <v>2135</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="1">
         <v>1924</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="1">
         <v>2380</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="1">
         <v>2294</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="1">
         <v>2389</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="1">
         <v>2303</v>
       </c>
     </row>
     <row r="48" spans="7:14">
-      <c r="G48" s="3">
+      <c r="G48" s="1">
         <v>1928</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="1">
         <v>1940</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="1">
         <v>2089</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="1">
         <v>2305</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="1">
         <v>2457</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="1">
         <v>2552</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="1">
         <v>2401</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="1">
         <v>2402</v>
       </c>
     </row>
     <row r="49" spans="3:14">
-      <c r="G49" s="3">
+      <c r="G49" s="1">
         <v>2119</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="1">
         <v>1986</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="1">
         <v>2104</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="1">
         <v>2229</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="1">
         <v>2835</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="1">
         <v>2685</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="1">
         <v>2769</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="1">
         <v>2783</v>
       </c>
     </row>
     <row r="50" spans="3:14">
-      <c r="G50" s="3">
+      <c r="G50" s="1">
         <v>2158</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="1">
         <v>1923</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="1">
         <v>2113</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="1">
         <v>2193</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="1">
         <v>2738</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="1">
         <v>2524</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="1">
         <v>2619</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="1">
         <v>2544</v>
       </c>
     </row>
     <row r="51" spans="3:14">
-      <c r="G51" s="3">
+      <c r="G51" s="1">
         <v>2276</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="1">
         <v>2203</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="1">
         <v>2350</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="1">
         <v>2398</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="1">
         <v>2915</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="1">
         <v>2923</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="1">
         <v>3079</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="1">
         <v>2805</v>
       </c>
     </row>
     <row r="52" spans="3:14">
-      <c r="G52" s="3">
+      <c r="G52" s="1">
         <v>2563</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="1">
         <v>2463</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="1">
         <v>2782</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="1">
         <v>2684</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="1">
         <v>3388</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="1">
         <v>3360</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="1">
         <v>3429</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="1">
         <v>3146</v>
       </c>
     </row>
     <row r="53" spans="3:14">
-      <c r="G53" s="4">
+      <c r="G53" s="2">
         <f t="shared" ref="G53:N53" si="0">SUM(G33:G52)</f>
         <v>31162</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="2">
         <f t="shared" si="0"/>
         <v>30326</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="2">
         <f t="shared" si="0"/>
         <v>32250</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="2">
         <f t="shared" si="0"/>
         <v>32911</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="2">
         <f t="shared" si="0"/>
         <v>36464</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="2">
         <f t="shared" si="0"/>
         <v>35841</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M53" s="2">
         <f t="shared" si="0"/>
         <v>36471</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="2">
         <f t="shared" si="0"/>
         <v>35490</v>
       </c>
     </row>
     <row r="55" spans="3:14" ht="15" thickBot="1"/>
     <row r="56" spans="3:14" ht="16" thickTop="1" thickBot="1">
-      <c r="G56" s="32" t="s">
+      <c r="G56" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="34"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="32"/>
     </row>
     <row r="57" spans="3:14" ht="16" thickTop="1" thickBot="1">
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="G57" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J57" s="15" t="s">
+      <c r="J57" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K57" s="15" t="s">
+      <c r="K57" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L57" s="15" t="s">
+      <c r="L57" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M57" s="15" t="s">
+      <c r="M57" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N57" s="16" t="s">
-        <v>42</v>
+      <c r="N57" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="3:14" ht="15" thickTop="1">
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="5">
         <v>269</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="5">
         <v>10</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="20">
         <v>295</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="4">
         <v>295</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="4">
         <v>295</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="4">
         <v>295</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="4">
         <v>295</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="4">
         <v>295</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L58" s="4">
         <v>295</v>
       </c>
-      <c r="M58" s="6">
+      <c r="M58" s="4">
         <v>295</v>
       </c>
-      <c r="N58" s="12">
+      <c r="N58" s="10">
         <v>295</v>
       </c>
     </row>
     <row r="59" spans="3:14">
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="3">
         <v>878</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="3">
         <v>20</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="21">
         <v>1024</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="4">
         <v>1024</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="4">
         <v>1024</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="4">
         <v>1024</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="4">
         <v>1024</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="4">
         <v>1024</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59" s="4">
         <v>1024</v>
       </c>
-      <c r="M59" s="6">
+      <c r="M59" s="4">
         <v>1024</v>
       </c>
-      <c r="N59" s="12">
+      <c r="N59" s="10">
         <v>1024</v>
       </c>
     </row>
     <row r="60" spans="3:14">
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="16">
         <v>20</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="16">
         <v>4</v>
       </c>
-      <c r="F60" s="24">
+      <c r="F60" s="22">
         <v>35</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="4">
         <v>35</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="4">
         <v>35</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="4">
         <v>35</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="4">
         <v>35</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="4">
         <v>35</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60" s="4">
         <v>35</v>
       </c>
-      <c r="M60" s="6">
+      <c r="M60" s="4">
         <v>35</v>
       </c>
-      <c r="N60" s="12">
+      <c r="N60" s="10">
         <v>35</v>
       </c>
     </row>
     <row r="61" spans="3:14">
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="16">
         <v>11</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="16">
         <v>4</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F61" s="22">
         <v>23</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="4">
         <v>23</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="4">
         <v>23</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="4">
         <v>23</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="4">
         <v>23</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="4">
         <v>23</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61" s="4">
         <v>23</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M61" s="4">
         <v>23</v>
       </c>
-      <c r="N61" s="12">
+      <c r="N61" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="62" spans="3:14">
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="16">
         <v>375</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="16">
         <v>15</v>
       </c>
-      <c r="F62" s="24">
+      <c r="F62" s="22">
         <v>481.07</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="4">
         <v>481</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62" s="4">
         <v>481</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="4">
         <v>481</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="4">
         <v>481</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="4">
         <v>481</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="4">
         <v>481</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M62" s="4">
         <v>481</v>
       </c>
-      <c r="N62" s="12">
+      <c r="N62" s="10">
         <v>481</v>
       </c>
     </row>
     <row r="63" spans="3:14">
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="16">
         <v>60</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="16">
         <v>10</v>
       </c>
-      <c r="F63" s="24">
+      <c r="F63" s="22">
         <v>52</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="4">
         <v>52</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="4">
         <v>52</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="4">
         <v>52</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="4">
         <v>52</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="4">
         <v>52</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="4">
         <v>52</v>
       </c>
-      <c r="M63" s="6">
+      <c r="M63" s="4">
         <v>52</v>
       </c>
-      <c r="N63" s="12">
+      <c r="N63" s="10">
         <v>52</v>
       </c>
     </row>
     <row r="64" spans="3:14">
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="16">
         <v>50</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="16">
         <v>7</v>
       </c>
-      <c r="F64" s="24">
+      <c r="F64" s="22">
         <v>107</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="4">
         <v>107</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="4">
         <v>107</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="4">
         <v>107</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="4">
         <v>107</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="4">
         <v>107</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64" s="4">
         <v>107</v>
       </c>
-      <c r="M64" s="6">
+      <c r="M64" s="4">
         <v>107</v>
       </c>
-      <c r="N64" s="12">
+      <c r="N64" s="10">
         <v>107</v>
       </c>
     </row>
     <row r="65" spans="3:14">
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="17">
         <v>10000</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="16">
         <v>23</v>
       </c>
-      <c r="F65" s="24">
+      <c r="F65" s="22">
         <v>9767</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="16">
         <v>9765</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="4">
         <v>9767</v>
       </c>
-      <c r="I65" s="18">
+      <c r="I65" s="16">
         <v>9765</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="4">
         <v>9767</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="4">
         <v>9767</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L65" s="4">
         <v>9767</v>
       </c>
-      <c r="M65" s="6">
+      <c r="M65" s="4">
         <v>9767</v>
       </c>
-      <c r="N65" s="20">
+      <c r="N65" s="18">
         <v>9765</v>
       </c>
     </row>
     <row r="66" spans="3:14">
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D66" s="16">
         <v>80</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="16">
         <v>5</v>
       </c>
-      <c r="F66" s="24">
+      <c r="F66" s="22">
         <v>130</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="4">
         <v>130</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66" s="4">
         <v>130</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="4">
         <v>130</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="4">
         <v>130</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="4">
         <v>130</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L66" s="4">
         <v>130</v>
       </c>
-      <c r="M66" s="6">
+      <c r="M66" s="4">
         <v>130</v>
       </c>
-      <c r="N66" s="12">
+      <c r="N66" s="10">
         <v>130</v>
       </c>
     </row>
     <row r="67" spans="3:14">
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="16">
         <v>879</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="16">
         <v>20</v>
       </c>
-      <c r="F67" s="24">
+      <c r="F67" s="22">
         <v>1025</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="4">
         <v>1025</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67" s="4">
         <v>1025</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67" s="4">
         <v>1025</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="4">
         <v>1025</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="4">
         <v>1025</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L67" s="4">
         <v>1025</v>
       </c>
-      <c r="M67" s="6">
+      <c r="M67" s="4">
         <v>1025</v>
       </c>
-      <c r="N67" s="12">
+      <c r="N67" s="10">
         <v>1025</v>
       </c>
     </row>
     <row r="68" spans="3:14">
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="16">
         <v>577</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="16">
         <v>30</v>
       </c>
-      <c r="F68" s="24">
+      <c r="F68" s="22">
         <v>1437</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="16">
         <v>1321</v>
       </c>
-      <c r="H68" s="18">
+      <c r="H68" s="16">
         <v>1353</v>
       </c>
-      <c r="I68" s="18">
+      <c r="I68" s="16">
         <v>1392</v>
       </c>
-      <c r="J68" s="18">
+      <c r="J68" s="16">
         <v>1391</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="4">
         <v>1437</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L68" s="4">
         <v>1437</v>
       </c>
-      <c r="M68" s="6">
+      <c r="M68" s="4">
         <v>1437</v>
       </c>
-      <c r="N68" s="12">
+      <c r="N68" s="10">
         <v>1437</v>
       </c>
     </row>
     <row r="69" spans="3:14">
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="16">
         <v>655</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="16">
         <v>35</v>
       </c>
-      <c r="F69" s="24">
+      <c r="F69" s="22">
         <v>1689</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="16">
         <v>1622</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H69" s="16">
         <v>1581</v>
       </c>
-      <c r="I69" s="26">
+      <c r="I69" s="24">
         <v>1661</v>
       </c>
-      <c r="J69" s="18">
+      <c r="J69" s="16">
         <v>1646</v>
       </c>
-      <c r="K69" s="26">
+      <c r="K69" s="24">
         <v>1677</v>
       </c>
-      <c r="L69" s="26">
+      <c r="L69" s="24">
         <v>1686</v>
       </c>
-      <c r="M69" s="26">
+      <c r="M69" s="24">
         <v>1665</v>
       </c>
-      <c r="N69" s="12">
+      <c r="N69" s="10">
         <v>1689</v>
       </c>
     </row>
     <row r="70" spans="3:14">
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D70" s="16">
         <v>819</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="16">
         <v>40</v>
       </c>
-      <c r="F70" s="24">
+      <c r="F70" s="22">
         <v>1821</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="16">
         <v>1635</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H70" s="16">
         <v>1518</v>
       </c>
-      <c r="I70" s="18">
+      <c r="I70" s="16">
         <v>1620</v>
       </c>
-      <c r="J70" s="18">
+      <c r="J70" s="16">
         <v>1744</v>
       </c>
-      <c r="K70" s="18">
+      <c r="K70" s="16">
         <v>1783</v>
       </c>
-      <c r="L70" s="18">
+      <c r="L70" s="16">
         <v>1761</v>
       </c>
-      <c r="M70" s="18">
+      <c r="M70" s="16">
         <v>1777</v>
       </c>
-      <c r="N70" s="20">
+      <c r="N70" s="18">
         <v>1758</v>
       </c>
     </row>
     <row r="71" spans="3:14">
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="16">
         <v>907</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="16">
         <v>45</v>
       </c>
-      <c r="F71" s="24">
+      <c r="F71" s="22">
         <v>2033</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="16">
         <v>1749</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="16">
         <v>1619</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I71" s="16">
         <v>1727</v>
       </c>
-      <c r="J71" s="18">
+      <c r="J71" s="16">
         <v>1769</v>
       </c>
-      <c r="K71" s="18">
+      <c r="K71" s="16">
         <v>1969</v>
       </c>
-      <c r="L71" s="18">
+      <c r="L71" s="16">
         <v>1952</v>
       </c>
-      <c r="M71" s="18">
+      <c r="M71" s="16">
         <v>1908</v>
       </c>
-      <c r="N71" s="20">
+      <c r="N71" s="18">
         <v>1947</v>
       </c>
     </row>
     <row r="72" spans="3:14">
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72" s="16">
         <v>882</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="16">
         <v>50</v>
       </c>
-      <c r="F72" s="24">
+      <c r="F72" s="22">
         <v>2444</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72" s="4">
         <v>2444</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H72" s="4">
         <v>2444</v>
       </c>
-      <c r="I72" s="26">
+      <c r="I72" s="24">
         <v>2438</v>
       </c>
-      <c r="J72" s="26">
+      <c r="J72" s="24">
         <v>2440</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K72" s="4">
         <v>2444</v>
       </c>
-      <c r="L72" s="6">
+      <c r="L72" s="4">
         <v>2444</v>
       </c>
-      <c r="M72" s="6">
+      <c r="M72" s="4">
         <v>2444</v>
       </c>
-      <c r="N72" s="27">
+      <c r="N72" s="25">
         <v>2351</v>
       </c>
     </row>
     <row r="73" spans="3:14">
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D73" s="16">
         <v>1050</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="16">
         <v>55</v>
       </c>
-      <c r="F73" s="24">
+      <c r="F73" s="22">
         <v>2651</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="16">
         <v>2022</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H73" s="16">
         <v>2055</v>
       </c>
-      <c r="I73" s="18">
+      <c r="I73" s="16">
         <v>2131</v>
       </c>
-      <c r="J73" s="18">
+      <c r="J73" s="16">
         <v>2392</v>
       </c>
-      <c r="K73" s="18">
+      <c r="K73" s="16">
         <v>2579</v>
       </c>
-      <c r="L73" s="18">
+      <c r="L73" s="16">
         <v>2454</v>
       </c>
-      <c r="M73" s="18">
+      <c r="M73" s="16">
         <v>2442</v>
       </c>
-      <c r="N73" s="20">
+      <c r="N73" s="18">
         <v>2498</v>
       </c>
     </row>
     <row r="74" spans="3:14">
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D74" s="16">
         <v>1006</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="16">
         <v>60</v>
       </c>
-      <c r="F74" s="24">
+      <c r="F74" s="22">
         <v>2917</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G74" s="16">
         <v>2198</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H74" s="16">
         <v>2175</v>
       </c>
-      <c r="I74" s="26">
+      <c r="I74" s="24">
         <v>2736</v>
       </c>
-      <c r="J74" s="18">
+      <c r="J74" s="16">
         <v>2490</v>
       </c>
-      <c r="K74" s="26">
+      <c r="K74" s="24">
         <v>2770</v>
       </c>
-      <c r="L74" s="26">
+      <c r="L74" s="24">
         <v>2680</v>
       </c>
-      <c r="M74" s="26">
+      <c r="M74" s="24">
         <v>2705</v>
       </c>
-      <c r="N74" s="27">
+      <c r="N74" s="25">
         <v>2701</v>
       </c>
     </row>
     <row r="75" spans="3:14">
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="3">
         <v>1319</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="3">
         <v>65</v>
       </c>
-      <c r="F75" s="23">
+      <c r="F75" s="21">
         <v>2817</v>
       </c>
-      <c r="G75" s="26">
+      <c r="G75" s="24">
         <v>2399</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="3">
         <v>2067</v>
       </c>
-      <c r="I75" s="5">
+      <c r="I75" s="3">
         <v>2239</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75" s="3">
         <v>2311</v>
       </c>
-      <c r="K75" s="26">
+      <c r="K75" s="24">
         <v>2638</v>
       </c>
-      <c r="L75" s="26">
+      <c r="L75" s="24">
         <v>2599</v>
       </c>
-      <c r="M75" s="26">
+      <c r="M75" s="24">
         <v>2513</v>
       </c>
-      <c r="N75" s="27">
+      <c r="N75" s="25">
         <v>2682</v>
       </c>
     </row>
     <row r="76" spans="3:14">
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="3">
         <v>1426</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="3">
         <v>70</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F76" s="21">
         <v>3223</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="3">
         <v>2401</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76" s="3">
         <v>2311</v>
       </c>
-      <c r="I76" s="5">
+      <c r="I76" s="3">
         <v>2458</v>
       </c>
-      <c r="J76" s="26">
+      <c r="J76" s="24">
         <v>2708</v>
       </c>
-      <c r="K76" s="26">
+      <c r="K76" s="24">
         <v>2932</v>
       </c>
-      <c r="L76" s="26">
+      <c r="L76" s="24">
         <v>2962</v>
       </c>
-      <c r="M76" s="26">
+      <c r="M76" s="24">
         <v>2956</v>
       </c>
-      <c r="N76" s="27">
+      <c r="N76" s="25">
         <v>2885</v>
       </c>
     </row>
     <row r="77" spans="3:14" ht="15" thickBot="1">
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="12">
         <v>1433</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="12">
         <v>75</v>
       </c>
-      <c r="F77" s="25">
+      <c r="F77" s="23">
         <v>3614</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G77" s="12">
         <v>2774</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H77" s="12">
         <v>2517</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I77" s="12">
         <v>2807</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J77" s="12">
         <v>2878</v>
       </c>
-      <c r="K77" s="28">
+      <c r="K77" s="26">
         <v>3335</v>
       </c>
-      <c r="L77" s="28">
+      <c r="L77" s="26">
         <v>3271</v>
       </c>
-      <c r="M77" s="28">
+      <c r="M77" s="26">
         <v>3258</v>
       </c>
-      <c r="N77" s="29">
+      <c r="N77" s="27">
         <v>3259</v>
       </c>
     </row>
     <row r="78" spans="3:14" ht="15" thickTop="1"/>
-    <row r="86" spans="5:14" ht="22">
-      <c r="E86" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" spans="5:14" ht="22">
-      <c r="E87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="2">
-        <v>295</v>
-      </c>
-      <c r="G87" s="1">
-        <v>295</v>
-      </c>
-      <c r="H87" s="1">
-        <v>295</v>
-      </c>
-      <c r="I87" s="1">
-        <v>295</v>
-      </c>
-      <c r="J87" s="1">
-        <v>295</v>
-      </c>
-      <c r="K87" s="1">
-        <v>295</v>
-      </c>
-      <c r="L87" s="1">
-        <v>295</v>
-      </c>
-      <c r="M87" s="1">
-        <v>295</v>
-      </c>
-      <c r="N87" s="1">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="88" spans="5:14" ht="22">
-      <c r="E88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="2">
-        <v>1024</v>
-      </c>
-      <c r="G88" s="1">
-        <v>1024</v>
-      </c>
-      <c r="H88" s="1">
-        <v>1024</v>
-      </c>
-      <c r="I88" s="1">
-        <v>1024</v>
-      </c>
-      <c r="J88" s="1">
-        <v>1024</v>
-      </c>
-      <c r="K88" s="1">
-        <v>1024</v>
-      </c>
-      <c r="L88" s="2">
-        <v>1018</v>
-      </c>
-      <c r="M88" s="1">
-        <v>1024</v>
-      </c>
-      <c r="N88" s="1">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="89" spans="5:14" ht="22">
-      <c r="E89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="2">
-        <v>35</v>
-      </c>
-      <c r="G89" s="1">
-        <v>35</v>
-      </c>
-      <c r="H89" s="1">
-        <v>35</v>
-      </c>
-      <c r="I89" s="1">
-        <v>35</v>
-      </c>
-      <c r="J89" s="1">
-        <v>35</v>
-      </c>
-      <c r="K89" s="1">
-        <v>35</v>
-      </c>
-      <c r="L89" s="1">
-        <v>35</v>
-      </c>
-      <c r="M89" s="1">
-        <v>35</v>
-      </c>
-      <c r="N89" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="5:14" ht="22">
-      <c r="E90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="2">
-        <v>23</v>
-      </c>
-      <c r="G90" s="1">
-        <v>23</v>
-      </c>
-      <c r="H90" s="1">
-        <v>23</v>
-      </c>
-      <c r="I90" s="1">
-        <v>23</v>
-      </c>
-      <c r="J90" s="1">
-        <v>23</v>
-      </c>
-      <c r="K90" s="1">
-        <v>22</v>
-      </c>
-      <c r="L90" s="1">
-        <v>22</v>
-      </c>
-      <c r="M90" s="1">
-        <v>23</v>
-      </c>
-      <c r="N90" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="5:14" ht="22">
-      <c r="E91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="2">
-        <v>481.07</v>
-      </c>
-      <c r="G91" s="1">
-        <v>481.07</v>
-      </c>
-      <c r="H91" s="1">
-        <v>481.07</v>
-      </c>
-      <c r="I91" s="1">
-        <v>481.07</v>
-      </c>
-      <c r="J91" s="1">
-        <v>481.07</v>
-      </c>
-      <c r="K91" s="1">
-        <v>481.07</v>
-      </c>
-      <c r="L91" s="1">
-        <v>481.07</v>
-      </c>
-      <c r="M91" s="1">
-        <v>481.07</v>
-      </c>
-      <c r="N91" s="1">
-        <v>481.07</v>
-      </c>
-    </row>
-    <row r="92" spans="5:14" ht="22">
-      <c r="E92" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="2">
-        <v>52</v>
-      </c>
-      <c r="G92" s="1">
-        <v>52</v>
-      </c>
-      <c r="H92" s="1">
-        <v>52</v>
-      </c>
-      <c r="I92" s="1">
-        <v>52</v>
-      </c>
-      <c r="J92" s="1">
-        <v>52</v>
-      </c>
-      <c r="K92" s="1">
-        <v>52</v>
-      </c>
-      <c r="L92" s="1">
-        <v>52</v>
-      </c>
-      <c r="M92" s="1">
-        <v>52</v>
-      </c>
-      <c r="N92" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="93" spans="5:14" ht="22">
-      <c r="E93" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" s="2">
-        <v>107</v>
-      </c>
-      <c r="G93" s="1">
-        <v>107</v>
-      </c>
-      <c r="H93" s="1">
-        <v>107</v>
-      </c>
-      <c r="I93" s="1">
-        <v>107</v>
-      </c>
-      <c r="J93" s="1">
-        <v>107</v>
-      </c>
-      <c r="K93" s="1">
-        <v>105</v>
-      </c>
-      <c r="L93" s="1">
-        <v>105</v>
-      </c>
-      <c r="M93" s="1">
-        <v>107</v>
-      </c>
-      <c r="N93" s="1">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="5:14" ht="22">
-      <c r="E94" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="2">
-        <v>9767</v>
-      </c>
-      <c r="G94" s="1">
-        <v>9767</v>
-      </c>
-      <c r="H94" s="1">
-        <v>9767</v>
-      </c>
-      <c r="I94" s="1">
-        <v>9767</v>
-      </c>
-      <c r="J94" s="1">
-        <v>9767</v>
-      </c>
-      <c r="K94" s="1">
-        <v>9767</v>
-      </c>
-      <c r="L94" s="1">
-        <v>9767</v>
-      </c>
-      <c r="M94" s="1">
-        <v>9767</v>
-      </c>
-      <c r="N94" s="1">
-        <v>9767</v>
-      </c>
-    </row>
-    <row r="95" spans="5:14" ht="22">
-      <c r="E95" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" s="2">
-        <v>130</v>
-      </c>
-      <c r="G95" s="1">
-        <v>130</v>
-      </c>
-      <c r="H95" s="1">
-        <v>130</v>
-      </c>
-      <c r="I95" s="1">
-        <v>130</v>
-      </c>
-      <c r="J95" s="1">
-        <v>130</v>
-      </c>
-      <c r="K95" s="1">
-        <v>130</v>
-      </c>
-      <c r="L95" s="1">
-        <v>130</v>
-      </c>
-      <c r="M95" s="1">
-        <v>130</v>
-      </c>
-      <c r="N95" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="5:14" ht="22">
-      <c r="E96" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" s="2">
-        <v>1025</v>
-      </c>
-      <c r="G96" s="1">
-        <v>1025</v>
-      </c>
-      <c r="H96" s="1">
-        <v>1025</v>
-      </c>
-      <c r="I96" s="1">
-        <v>1025</v>
-      </c>
-      <c r="J96" s="1">
-        <v>1025</v>
-      </c>
-      <c r="K96" s="1">
-        <v>1025</v>
-      </c>
-      <c r="L96" s="1">
-        <v>1025</v>
-      </c>
-      <c r="M96" s="1">
-        <v>1025</v>
-      </c>
-      <c r="N96" s="1">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="97" spans="5:14" ht="22">
-      <c r="E97" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="2">
-        <v>1437</v>
-      </c>
-      <c r="G97" s="1">
-        <v>1437</v>
-      </c>
-      <c r="H97" s="1">
-        <v>1437</v>
-      </c>
-      <c r="I97" s="1">
-        <v>1437</v>
-      </c>
-      <c r="J97" s="1">
-        <v>1437</v>
-      </c>
-      <c r="K97" s="1">
-        <v>1437</v>
-      </c>
-      <c r="L97" s="1">
-        <v>1437</v>
-      </c>
-      <c r="M97" s="1">
-        <v>1437</v>
-      </c>
-      <c r="N97" s="1">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="98" spans="5:14" ht="22">
-      <c r="E98" s="2" t="s">
+    <row r="92" spans="4:6" ht="15" thickBot="1"/>
+    <row r="93" spans="4:6" ht="16" thickTop="1" thickBot="1">
+      <c r="D93" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E93" s="69"/>
+      <c r="F93" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" ht="15" thickTop="1">
+      <c r="D94" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E94" s="66"/>
+      <c r="F94" s="67">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6">
+      <c r="D95" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E95" s="60"/>
+      <c r="F95" s="61">
         <v>20</v>
       </c>
-      <c r="F98" s="2">
-        <v>1689</v>
-      </c>
-      <c r="G98" s="1">
-        <v>1689</v>
-      </c>
-      <c r="H98" s="1">
-        <v>1689</v>
-      </c>
-      <c r="I98" s="1">
-        <v>1689</v>
-      </c>
-      <c r="J98" s="1">
-        <v>1689</v>
-      </c>
-      <c r="K98" s="1">
-        <v>1689</v>
-      </c>
-      <c r="L98" s="1">
-        <v>1689</v>
-      </c>
-      <c r="M98" s="1">
-        <v>1689</v>
-      </c>
-      <c r="N98" s="1">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="99" spans="5:14" ht="22">
-      <c r="E99" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F99" s="2">
-        <v>1821</v>
-      </c>
-      <c r="G99" s="1">
-        <v>1817</v>
-      </c>
-      <c r="H99" s="1">
-        <v>1817</v>
-      </c>
-      <c r="I99" s="1">
-        <v>1817</v>
-      </c>
-      <c r="J99" s="1">
-        <v>1817</v>
-      </c>
-      <c r="K99" s="1">
-        <v>1817</v>
-      </c>
-      <c r="L99" s="1">
-        <v>1817</v>
-      </c>
-      <c r="M99" s="1">
-        <v>1817</v>
-      </c>
-      <c r="N99" s="1">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="100" spans="5:14" ht="22">
-      <c r="E100" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F100" s="2">
-        <v>2033</v>
-      </c>
-      <c r="G100" s="1">
-        <v>2033</v>
-      </c>
-      <c r="H100" s="1">
-        <v>2033</v>
-      </c>
-      <c r="I100" s="1">
-        <v>2033</v>
-      </c>
-      <c r="J100" s="1">
-        <v>2033</v>
-      </c>
-      <c r="K100" s="1">
-        <v>2033</v>
-      </c>
-      <c r="L100" s="1">
-        <v>2033</v>
-      </c>
-      <c r="M100" s="1">
-        <v>2033</v>
-      </c>
-      <c r="N100" s="1">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="101" spans="5:14" ht="22">
-      <c r="E101" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101" s="2">
-        <v>2440</v>
-      </c>
-      <c r="G101" s="1">
-        <v>2444</v>
-      </c>
-      <c r="H101" s="1">
-        <v>2444</v>
-      </c>
-      <c r="I101" s="2">
-        <v>2438</v>
-      </c>
-      <c r="J101" s="2">
-        <v>2440</v>
-      </c>
-      <c r="K101" s="1">
-        <v>2444</v>
-      </c>
-      <c r="L101" s="1">
-        <v>2444</v>
-      </c>
-      <c r="M101" s="1">
-        <v>2444</v>
-      </c>
-      <c r="N101" s="2">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="102" spans="5:14" ht="22">
-      <c r="E102" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F102" s="2">
-        <v>2651</v>
-      </c>
-      <c r="G102" s="1">
-        <v>2651</v>
-      </c>
-      <c r="H102" s="1">
-        <v>2651</v>
-      </c>
-      <c r="I102" s="1">
-        <v>2651</v>
-      </c>
-      <c r="J102" s="1">
-        <v>2651</v>
-      </c>
-      <c r="K102" s="1">
-        <v>2651</v>
-      </c>
-      <c r="L102" s="1">
-        <v>2651</v>
-      </c>
-      <c r="M102" s="1">
-        <v>2651</v>
-      </c>
-      <c r="N102" s="1">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="103" spans="5:14" ht="22">
-      <c r="E103" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103" s="2">
-        <v>2917</v>
-      </c>
-      <c r="G103" s="1">
-        <v>2917</v>
-      </c>
-      <c r="H103" s="1">
-        <v>2917</v>
-      </c>
-      <c r="I103" s="1">
-        <v>2917</v>
-      </c>
-      <c r="J103" s="1">
-        <v>2917</v>
-      </c>
-      <c r="K103" s="1">
-        <v>2917</v>
-      </c>
-      <c r="L103" s="1">
-        <v>2917</v>
-      </c>
-      <c r="M103" s="1">
-        <v>2917</v>
-      </c>
-      <c r="N103" s="1">
-        <v>2917</v>
-      </c>
-    </row>
-    <row r="104" spans="5:14" ht="22">
-      <c r="E104" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F104" s="2">
-        <v>2817</v>
-      </c>
-      <c r="G104" s="1">
-        <v>2817</v>
-      </c>
-      <c r="H104" s="1">
-        <v>2817</v>
-      </c>
-      <c r="I104" s="1">
-        <v>2817</v>
-      </c>
-      <c r="J104" s="1">
-        <v>2817</v>
-      </c>
-      <c r="K104" s="1">
-        <v>2817</v>
-      </c>
-      <c r="L104" s="1">
-        <v>2817</v>
-      </c>
-      <c r="M104" s="1">
-        <v>2817</v>
-      </c>
-      <c r="N104" s="1">
-        <v>2817</v>
-      </c>
-    </row>
-    <row r="105" spans="5:14" ht="22">
-      <c r="E105" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F105" s="2">
-        <v>3223</v>
-      </c>
-      <c r="G105" s="1">
-        <v>3223</v>
-      </c>
-      <c r="H105" s="1">
-        <v>3223</v>
-      </c>
-      <c r="I105" s="1">
-        <v>3223</v>
-      </c>
-      <c r="J105" s="1">
-        <v>3223</v>
-      </c>
-      <c r="K105" s="1">
-        <v>3223</v>
-      </c>
-      <c r="L105" s="1">
-        <v>3223</v>
-      </c>
-      <c r="M105" s="1">
-        <v>3223</v>
-      </c>
-      <c r="N105" s="1">
-        <v>3223</v>
-      </c>
-    </row>
-    <row r="106" spans="5:14" ht="22">
-      <c r="E106" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F106" s="2">
-        <v>3614</v>
-      </c>
-      <c r="G106" s="1">
-        <v>3614</v>
-      </c>
-      <c r="H106" s="1">
-        <v>3614</v>
-      </c>
-      <c r="I106" s="1">
-        <v>3614</v>
-      </c>
-      <c r="J106" s="1">
-        <v>3614</v>
-      </c>
-      <c r="K106" s="1">
-        <v>3614</v>
-      </c>
-      <c r="L106" s="1">
-        <v>3614</v>
-      </c>
-      <c r="M106" s="1">
-        <v>3614</v>
-      </c>
-      <c r="N106" s="1">
-        <v>3614</v>
-      </c>
-    </row>
+    </row>
+    <row r="96" spans="4:6">
+      <c r="D96" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96" s="60"/>
+      <c r="F96" s="61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6">
+      <c r="D97" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="E97" s="60"/>
+      <c r="F97" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6">
+      <c r="D98" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E98" s="60"/>
+      <c r="F98" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" ht="15" thickBot="1">
+      <c r="D99" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E99" s="63"/>
+      <c r="F99" s="64"/>
+    </row>
+    <row r="100" spans="4:6" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
     <mergeCell ref="C30:N30"/>
     <mergeCell ref="G31:N31"/>
     <mergeCell ref="G56:N56"/>
     <mergeCell ref="G3:N3"/>
+    <mergeCell ref="D93:E93"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G70:N70">
@@ -5422,248 +4849,248 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E42B99-AD92-4141-9772-3F8047708775}">
   <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="136" workbookViewId="0">
+    <sheetView topLeftCell="B8" zoomScale="136" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="38" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="35"/>
-    <col min="2" max="2" width="17.5" style="37" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="25.83203125" style="35"/>
+    <col min="1" max="1" width="25.83203125" style="33"/>
+    <col min="2" max="2" width="17.5" style="35" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="33" customWidth="1"/>
+    <col min="6" max="16384" width="25.83203125" style="33"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="38" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:5" ht="38" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="38" customHeight="1" thickTop="1">
+      <c r="B4" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="38" customHeight="1">
+      <c r="B5" s="36"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="55"/>
+    </row>
+    <row r="6" spans="2:5" ht="38" customHeight="1">
+      <c r="B6" s="36"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="55"/>
+    </row>
+    <row r="7" spans="2:5" ht="38" customHeight="1" thickBot="1">
+      <c r="B7" s="41"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="56"/>
+    </row>
+    <row r="8" spans="2:5" ht="38" customHeight="1" thickTop="1">
+      <c r="B8" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="C8" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="38" customHeight="1">
+      <c r="B9" s="36"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="55"/>
+    </row>
+    <row r="10" spans="2:5" ht="38" customHeight="1">
+      <c r="B10" s="36"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="38" customHeight="1" thickTop="1">
-      <c r="B4" s="39" t="s">
+      <c r="E10" s="55"/>
+    </row>
+    <row r="11" spans="2:5" ht="38" customHeight="1" thickBot="1">
+      <c r="B11" s="43"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="46" t="s">
+      <c r="E11" s="58"/>
+    </row>
+    <row r="12" spans="2:5" ht="38" customHeight="1" thickTop="1">
+      <c r="B12" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="D12" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="38" customHeight="1">
+      <c r="B13" s="36"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="55"/>
+    </row>
+    <row r="14" spans="2:5" ht="38" customHeight="1">
+      <c r="B14" s="36"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="55"/>
+    </row>
+    <row r="15" spans="2:5" ht="38" customHeight="1" thickBot="1">
+      <c r="B15" s="41"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="56"/>
+    </row>
+    <row r="16" spans="2:5" ht="38" customHeight="1" thickTop="1">
+      <c r="B16" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="38" customHeight="1" thickBot="1">
+      <c r="B17" s="43"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="58"/>
+    </row>
+    <row r="18" spans="2:5" ht="38" customHeight="1" thickTop="1">
+      <c r="B18" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="44" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="38" customHeight="1">
-      <c r="B5" s="38"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="57"/>
-    </row>
-    <row r="6" spans="2:5" ht="38" customHeight="1">
-      <c r="B6" s="38"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="47" t="s">
+      <c r="E18" s="54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="38" customHeight="1">
+      <c r="B19" s="36"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="55"/>
+    </row>
+    <row r="20" spans="2:5" ht="38" customHeight="1">
+      <c r="B20" s="36"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="55"/>
+    </row>
+    <row r="21" spans="2:5" ht="38" customHeight="1">
+      <c r="B21" s="36"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="2:5" ht="38" customHeight="1">
+      <c r="B22" s="36"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="57"/>
-    </row>
-    <row r="7" spans="2:5" ht="38" customHeight="1" thickBot="1">
-      <c r="B7" s="43"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="58"/>
-    </row>
-    <row r="8" spans="2:5" ht="38" customHeight="1" thickTop="1">
-      <c r="B8" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="38" customHeight="1">
-      <c r="B9" s="38"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="57"/>
-    </row>
-    <row r="10" spans="2:5" ht="38" customHeight="1">
-      <c r="B10" s="38"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="57"/>
-    </row>
-    <row r="11" spans="2:5" ht="38" customHeight="1" thickBot="1">
-      <c r="B11" s="45"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="60"/>
-    </row>
-    <row r="12" spans="2:5" ht="38" customHeight="1" thickTop="1">
-      <c r="B12" s="39" t="s">
+      <c r="E22" s="55"/>
+    </row>
+    <row r="23" spans="2:5" ht="38" customHeight="1">
+      <c r="B23" s="36"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="55"/>
+    </row>
+    <row r="24" spans="2:5" ht="38" customHeight="1">
+      <c r="B24" s="36"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="46" t="s">
+      <c r="E24" s="55"/>
+    </row>
+    <row r="25" spans="2:5" ht="38" customHeight="1">
+      <c r="B25" s="36"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E25" s="55"/>
+    </row>
+    <row r="26" spans="2:5" ht="38" customHeight="1" thickBot="1">
+      <c r="B26" s="43"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="48" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="38" customHeight="1">
-      <c r="B13" s="38"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="57"/>
-    </row>
-    <row r="14" spans="2:5" ht="38" customHeight="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="57"/>
-    </row>
-    <row r="15" spans="2:5" ht="38" customHeight="1" thickBot="1">
-      <c r="B15" s="43"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="58"/>
-    </row>
-    <row r="16" spans="2:5" ht="38" customHeight="1" thickTop="1">
-      <c r="B16" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="38" customHeight="1" thickBot="1">
-      <c r="B17" s="45"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="60"/>
-    </row>
-    <row r="18" spans="2:5" ht="38" customHeight="1" thickTop="1">
-      <c r="B18" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="38" customHeight="1">
-      <c r="B19" s="38"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="57"/>
-    </row>
-    <row r="20" spans="2:5" ht="38" customHeight="1">
-      <c r="B20" s="38"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="57"/>
-    </row>
-    <row r="21" spans="2:5" ht="38" customHeight="1">
-      <c r="B21" s="38"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="57"/>
-    </row>
-    <row r="22" spans="2:5" ht="38" customHeight="1">
-      <c r="B22" s="38"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="57"/>
-    </row>
-    <row r="23" spans="2:5" ht="38" customHeight="1">
-      <c r="B23" s="38"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="57"/>
-    </row>
-    <row r="24" spans="2:5" ht="38" customHeight="1">
-      <c r="B24" s="38"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="57"/>
-    </row>
-    <row r="25" spans="2:5" ht="38" customHeight="1">
-      <c r="B25" s="38"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="57"/>
-    </row>
-    <row r="26" spans="2:5" ht="38" customHeight="1" thickBot="1">
-      <c r="B26" s="45"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="60"/>
+      <c r="E26" s="58"/>
     </row>
     <row r="27" spans="2:5" ht="38" customHeight="1" thickTop="1"/>
   </sheetData>
